--- a/ZTC_H2_and_He_example.xlsx
+++ b/ZTC_H2_and_He_example.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inukai\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inukai\Desktop\lammps_education_gcmc_win-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36ECDDAC-6A70-4CE8-871E-A1520206214A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FA47BED-AF28-43DA-BAC1-681BB12B5E14}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2700" yWindow="380" windowWidth="14730" windowHeight="11140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7060" yWindow="240" windowWidth="16100" windowHeight="11140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="H2" sheetId="1" r:id="rId1"/>
@@ -372,22 +372,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>5.0896999999999997</c:v>
+                  <c:v>2.5221</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>5.0218999999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>15.0274</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>30.001799999999999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>49.981999999999999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>69.981999999999999</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>100.0042</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -399,16 +393,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.8252442705452957</c:v>
+                  <c:v>0.47282274359779941</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>0.77776431252249512</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>2.0604607073851047</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>2.5644462668743744</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -471,22 +465,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
+                  <c:v>2.5026999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>4.9962</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>14.9991</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>29.989899999999999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>49.976599999999998</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>70.035600000000002</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>99.998699999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -498,16 +486,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.65071225282672496</c:v>
+                  <c:v>0.16941124055910153</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.5901148599445734</c:v>
+                  <c:v>0.64928867327524808</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>1.587770399937587</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>1.9062149954269736</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -570,22 +558,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>5.0031999999999996</c:v>
+                  <c:v>2.4899</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>15.0036</c:v>
+                  <c:v>4.9969000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>15.0161</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>30.001000000000001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>49.9908</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>70.002399999999994</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>100.00069999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -597,16 +579,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.52263794313525413</c:v>
+                  <c:v>0.13283273867186537</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.2955180542481122</c:v>
+                  <c:v>0.45206882126316911</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.7264616707383602</c:v>
+                  <c:v>1.2415575820348193</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>1.736367588309282</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -669,22 +651,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
+                  <c:v>2.5051999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>4.9835000000000003</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>15.0192</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>30.002600000000001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>50.025399999999998</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>69.965800000000002</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>100.03789999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -696,16 +672,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.39926452273242874</c:v>
+                  <c:v>0.15913083549332993</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.97923520725172375</c:v>
+                  <c:v>0.36774307570696535</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.6748445817802733</c:v>
+                  <c:v>0.9588838935948647</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>1.4983491008929877</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -768,22 +744,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>4.9405000000000001</c:v>
+                  <c:v>2.5363000000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>15.008800000000001</c:v>
+                  <c:v>4.9787999999999997</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>30.0427</c:v>
+                  <c:v>14.9886</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>50.030700000000003</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>69.904600000000002</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>99.887299999999996</c:v>
+                  <c:v>29.979199999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -795,16 +765,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.30047302371083201</c:v>
+                  <c:v>9.3700951496680118E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.83086226110196015</c:v>
+                  <c:v>0.29793416346911888</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.4653320378167196</c:v>
+                  <c:v>0.81957052174980627</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>1.4061267610538097</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -867,22 +837,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>4.9966999999999997</c:v>
+                  <c:v>2.5287000000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>15.022</c:v>
+                  <c:v>5.0038</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>30.031500000000001</c:v>
+                  <c:v>15.0101</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>50.021999999999998</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>70.001999999999995</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>100.0027</c:v>
+                  <c:v>29.965599999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -894,16 +858,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.22064704113308786</c:v>
+                  <c:v>6.8839039212730754E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.62266885944826678</c:v>
+                  <c:v>0.24728564371977479</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.250355603881947</c:v>
+                  <c:v>0.67668456046060621</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>1.1017069835853692</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -918,6 +882,933 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-6C4D-459D-B772-ADDFA9F63302}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="674615480"/>
+        <c:axId val="674615800"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="674615480"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Pressure / MPa</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="674615800"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="674615800"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>H / wt.%</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="674615480"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Absolute</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'H2'!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>233.15K (-40 degree of Celsius)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'H2'!$A$3:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2.5221</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.0218999999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15.0274</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30.001799999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'H2'!$B$3:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.0780000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5963000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.323</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.4021999999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6D66-4C21-89B0-6E36710B0211}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'H2'!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>248.15K (-25 degree of Celsius)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'H2'!$G$3:$G$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2.5026999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.9962</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14.9991</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>29.989899999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'H2'!$H$3:$H$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.79290000000000005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5150999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0371999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.9975999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6D66-4C21-89B0-6E36710B0211}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'H2'!$M$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>273.15K (0 degree of Celsius)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'H2'!$M$3:$M$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2.4899</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.9969000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15.0161</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30.001000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'H2'!$N$3:$N$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.64910000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1667000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.5011000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.5954999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-6D66-4C21-89B0-6E36710B0211}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'H2'!$S$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>298.15K (25 degree of Celsius)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'H2'!$S$3:$S$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2.5051999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.9835000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15.0192</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30.002600000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'H2'!$T$3:$T$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.53810000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0073000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0964</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.2578999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-6D66-4C21-89B0-6E36710B0211}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'H2'!$Y$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>313.15K (40 degree of Celsius)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'H2'!$Y$3:$Y$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2.5363000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.9787999999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14.9886</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>29.979199999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'H2'!$Z$3:$Z$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.50109999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.83709999999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.9165000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.9436</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-6D66-4C21-89B0-6E36710B0211}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'H2'!$AE$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>358.15K (85 degree of Celsius)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'H2'!$AE$3:$AE$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2.5287000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.0038</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15.0101</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>29.965599999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'H2'!$AF$3:$AF$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.34670000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.69179999999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.502</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.4470999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-6D66-4C21-89B0-6E36710B0211}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1291,6 +2182,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -1807,19 +2738,535 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>165100</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>501650</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>28576</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1840,6 +3287,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>34926</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="グラフ 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06D3864F-DB9C-4609-B09C-9E3980186CF0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2111,10 +3596,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AI13"/>
+  <dimension ref="A1:AI14"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="H14" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q19" sqref="Q19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -2228,523 +3713,523 @@
     </row>
     <row r="3" spans="1:35">
       <c r="A3" s="4">
-        <v>5.0896999999999997</v>
+        <v>2.5221</v>
       </c>
       <c r="B3" s="4">
-        <v>1.643</v>
+        <v>1.0780000000000001</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:C8" si="0">(B3/100)*($B$13)/(1-B3/100)</f>
-        <v>471.46651483880152</v>
+        <f t="shared" ref="C3:C8" si="0">(B3/100)*($B$14)/(1-B3/100)</f>
+        <v>307.57032813732036</v>
       </c>
       <c r="D3">
-        <f>He!$D$3</f>
-        <v>236.6114439031154</v>
+        <f>He!$D3</f>
+        <v>173.48685985081411</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E8" si="1">(C3-D3)/($B$13+C3-D3)*100</f>
-        <v>0.8252442705452957</v>
+        <f t="shared" ref="E3:E8" si="1">(C3-D3)/($B$14+C3-D3)*100</f>
+        <v>0.47282274359779941</v>
       </c>
       <c r="G3" s="4">
-        <v>4.9962</v>
+        <v>2.5026999999999999</v>
       </c>
       <c r="H3" s="4">
-        <v>1.5150999999999999</v>
+        <v>0.79290000000000005</v>
       </c>
       <c r="I3">
-        <f t="shared" ref="I3:I8" si="2">(H3/100)*($B$13)/(1-H3/100)</f>
-        <v>434.20039417210154</v>
+        <f t="shared" ref="I3:I8" si="2">(H3/100)*($B$14)/(1-H3/100)</f>
+        <v>225.57669360358278</v>
       </c>
       <c r="J3">
-        <f>He!$I$3</f>
-        <v>249.34046170314397</v>
+        <f>He!$I3</f>
+        <v>177.68092425114668</v>
       </c>
       <c r="K3">
-        <f t="shared" ref="K3:K8" si="3">(I3-J3)/($B$13+I3-J3)*100</f>
-        <v>0.65071225282672496</v>
+        <f t="shared" ref="K3:K8" si="3">(I3-J3)/($B$14+I3-J3)*100</f>
+        <v>0.16941124055910153</v>
       </c>
       <c r="M3" s="4">
-        <v>5.0031999999999996</v>
+        <v>2.4899</v>
       </c>
       <c r="N3" s="4">
-        <v>1.1891</v>
+        <v>0.64910000000000001</v>
       </c>
       <c r="O3">
-        <f t="shared" ref="O3:O8" si="4">(N3/100)*($B$13)/(1-N3/100)</f>
-        <v>339.65036650814841</v>
+        <f t="shared" ref="O3:O8" si="4">(N3/100)*($B$14)/(1-N3/100)</f>
+        <v>184.39891737266598</v>
       </c>
       <c r="P3">
-        <f>He!$N$3</f>
-        <v>191.36604330085166</v>
+        <f>He!$N3</f>
+        <v>146.85833903159499</v>
       </c>
       <c r="Q3">
-        <f t="shared" ref="Q3:Q8" si="5">(O3-P3)/($B$13+O3-P3)*100</f>
-        <v>0.52263794313525413</v>
+        <f t="shared" ref="Q3:Q8" si="5">(O3-P3)/($B$14+O3-P3)*100</f>
+        <v>0.13283273867186537</v>
       </c>
       <c r="S3" s="4">
-        <v>4.9835000000000003</v>
+        <v>2.5051999999999999</v>
       </c>
       <c r="T3" s="4">
-        <v>1.0073000000000001</v>
+        <v>0.53810000000000002</v>
       </c>
       <c r="U3">
-        <f t="shared" ref="U3:U8" si="6">(T3/100)*($B$13)/(1-T3/100)</f>
-        <v>287.19324960325361</v>
+        <f t="shared" ref="U3:U8" si="6">(T3/100)*($B$14)/(1-T3/100)</f>
+        <v>152.69499577225048</v>
       </c>
       <c r="V3">
-        <f>He!$S$3</f>
-        <v>174.05310223785571</v>
+        <f>He!$S3</f>
+        <v>107.71032427902193</v>
       </c>
       <c r="W3">
-        <f t="shared" ref="W3:W8" si="7">(U3-V3)/($B$13+U3-V3)*100</f>
-        <v>0.39926452273242874</v>
+        <f t="shared" ref="W3:W8" si="7">(U3-V3)/($B$14+U3-V3)*100</f>
+        <v>0.15913083549332993</v>
       </c>
       <c r="Y3" s="4">
-        <v>4.9405000000000001</v>
+        <v>2.5363000000000002</v>
       </c>
       <c r="Z3" s="4">
-        <v>0.82269999999999999</v>
+        <v>0.50109999999999999</v>
       </c>
       <c r="AA3">
-        <f t="shared" ref="AA3:AA8" si="8">(Z3/100)*($B$13)/(1-Z3/100)</f>
-        <v>234.12499432833926</v>
+        <f t="shared" ref="AA3:AA8" si="8">(Z3/100)*($B$14)/(1-Z3/100)</f>
+        <v>142.14274127653673</v>
       </c>
       <c r="AB3">
-        <f>He!$X$3</f>
-        <v>149.06390248152044</v>
+        <f>He!$X3</f>
+        <v>115.67178118463731</v>
       </c>
       <c r="AC3">
-        <f t="shared" ref="AC3:AC8" si="9">(AA3-AB3)/($B$13+AA3-AB3)*100</f>
-        <v>0.30047302371083201</v>
+        <f t="shared" ref="AC3:AC8" si="9">(AA3-AB3)/($B$14+AA3-AB3)*100</f>
+        <v>9.3700951496680118E-2</v>
       </c>
       <c r="AE3" s="4">
-        <v>4.9966999999999997</v>
+        <v>2.5287000000000002</v>
       </c>
       <c r="AF3" s="4">
-        <v>0.68430000000000002</v>
+        <v>0.34670000000000001</v>
       </c>
       <c r="AG3">
-        <f t="shared" ref="AG3:AG8" si="10">(AF3/100)*($B$13)/(1-AF3/100)</f>
-        <v>194.46757360618716</v>
+        <f t="shared" ref="AG3:AG8" si="10">(AF3/100)*($B$14)/(1-AF3/100)</f>
+        <v>98.193043281055424</v>
       </c>
       <c r="AH3">
-        <f>He!$AC$3</f>
-        <v>132.05443998416902</v>
+        <f>He!$AC3</f>
+        <v>78.750528813496032</v>
       </c>
       <c r="AI3">
-        <f t="shared" ref="AI3:AI8" si="11">(AG3-AH3)/($B$13+AG3-AH3)*100</f>
-        <v>0.22064704113308786</v>
+        <f t="shared" ref="AI3:AI8" si="11">(AG3-AH3)/($B$14+AG3-AH3)*100</f>
+        <v>6.8839039212730754E-2</v>
       </c>
     </row>
     <row r="4" spans="1:35">
       <c r="A4" s="4">
-        <v>15.0274</v>
+        <v>5.0218999999999996</v>
       </c>
       <c r="B4" s="4">
-        <v>3.323</v>
+        <v>1.5963000000000001</v>
       </c>
       <c r="C4">
         <f t="shared" si="0"/>
-        <v>970.12062848454138</v>
+        <v>457.84834513336392</v>
       </c>
       <c r="D4">
-        <f>He!$D$4</f>
-        <v>376.34161517421109</v>
+        <f>He!$D4</f>
+        <v>236.6114439031154</v>
       </c>
       <c r="E4">
         <f t="shared" si="1"/>
-        <v>2.0604607073851047</v>
+        <v>0.77776431252249512</v>
       </c>
       <c r="G4" s="4">
-        <v>14.9991</v>
+        <v>4.9962</v>
       </c>
       <c r="H4" s="4">
-        <v>3.0371999999999999</v>
+        <v>1.5150999999999999</v>
       </c>
       <c r="I4">
         <f t="shared" si="2"/>
-        <v>884.07031150090552</v>
+        <v>434.20039417210154</v>
       </c>
       <c r="J4">
-        <f>He!$I$4</f>
-        <v>428.02464349505459</v>
+        <f>He!$I4</f>
+        <v>249.74752745577493</v>
       </c>
       <c r="K4">
         <f t="shared" si="3"/>
-        <v>1.5901148599445734</v>
+        <v>0.64928867327524808</v>
       </c>
       <c r="M4" s="4">
-        <v>15.0036</v>
+        <v>4.9969000000000001</v>
       </c>
       <c r="N4" s="4">
-        <v>2.5110999999999999</v>
+        <v>1.1667000000000001</v>
       </c>
       <c r="O4">
         <f t="shared" si="4"/>
-        <v>726.98826635647742</v>
+        <v>333.17657914893056</v>
       </c>
       <c r="P4">
-        <f>He!$N$4</f>
-        <v>356.54205315214972</v>
+        <f>He!$N4</f>
+        <v>205.00525242971679</v>
       </c>
       <c r="Q4">
         <f t="shared" si="5"/>
-        <v>1.2955180542481122</v>
+        <v>0.45206882126316911</v>
       </c>
       <c r="S4" s="4">
-        <v>15.0192</v>
+        <v>4.9835000000000003</v>
       </c>
       <c r="T4" s="4">
-        <v>2.0964</v>
+        <v>1.0073000000000001</v>
       </c>
       <c r="U4">
         <f t="shared" si="6"/>
-        <v>604.35769062628958</v>
+        <v>287.19324960325361</v>
       </c>
       <c r="V4">
-        <f>He!$S$4</f>
-        <v>325.24517773751114</v>
+        <f>He!$S4</f>
+        <v>183.01834792818511</v>
       </c>
       <c r="W4">
         <f t="shared" si="7"/>
-        <v>0.97923520725172375</v>
+        <v>0.36774307570696535</v>
       </c>
       <c r="Y4" s="4">
-        <v>15.008800000000001</v>
+        <v>4.9787999999999997</v>
       </c>
       <c r="Z4" s="4">
-        <v>1.9617</v>
+        <v>0.83709999999999996</v>
       </c>
       <c r="AA4">
         <f t="shared" si="8"/>
-        <v>564.74888691460376</v>
+        <v>238.2575580181701</v>
       </c>
       <c r="AB4">
-        <f>He!$X$4</f>
-        <v>328.28160493536751</v>
+        <f>He!$X4</f>
+        <v>153.91734140180196</v>
       </c>
       <c r="AC4">
         <f t="shared" si="9"/>
-        <v>0.83086226110196015</v>
+        <v>0.29793416346911888</v>
       </c>
       <c r="AE4" s="4">
-        <v>15.022</v>
+        <v>5.0038</v>
       </c>
       <c r="AF4" s="4">
-        <v>1.4831000000000001</v>
+        <v>0.69179999999999997</v>
       </c>
       <c r="AG4">
         <f t="shared" si="10"/>
-        <v>424.89171299543534</v>
+        <v>196.61380631206686</v>
       </c>
       <c r="AH4">
-        <f>He!$AC$4</f>
-        <v>248.04850652803421</v>
+        <f>He!$AC4</f>
+        <v>126.64688808446761</v>
       </c>
       <c r="AI4">
         <f t="shared" si="11"/>
-        <v>0.62266885944826678</v>
+        <v>0.24728564371977479</v>
       </c>
     </row>
     <row r="5" spans="1:35">
       <c r="A5" s="4">
-        <v>30.001799999999999</v>
+        <v>15.0274</v>
       </c>
       <c r="B5" s="4">
-        <v>4.4021999999999997</v>
+        <v>3.323</v>
       </c>
       <c r="C5">
         <f t="shared" si="0"/>
-        <v>1299.6919678067907</v>
+        <v>970.12062848454138</v>
       </c>
       <c r="D5">
-        <f>He!$D$5</f>
-        <v>556.85294587741328</v>
+        <f>He!$D5</f>
+        <v>376.34161517421109</v>
       </c>
       <c r="E5">
         <f t="shared" si="1"/>
-        <v>2.5644462668743744</v>
+        <v>2.0604607073851047</v>
       </c>
       <c r="G5" s="4">
-        <v>29.989899999999999</v>
+        <v>14.9991</v>
       </c>
       <c r="H5" s="4">
-        <v>3.9975999999999998</v>
+        <v>3.0371999999999999</v>
       </c>
       <c r="I5" s="2">
         <f t="shared" si="2"/>
-        <v>1175.2650183745407</v>
-      </c>
-      <c r="J5" s="2">
-        <f>He!$I$5</f>
-        <v>626.79997516693322</v>
+        <v>884.07031150090552</v>
+      </c>
+      <c r="J5">
+        <f>He!$I5</f>
+        <v>428.70788398600206</v>
       </c>
       <c r="K5" s="2">
         <f t="shared" si="3"/>
-        <v>1.9062149954269736</v>
+        <v>1.587770399937587</v>
       </c>
       <c r="M5" s="4">
-        <v>30.001000000000001</v>
+        <v>15.0161</v>
       </c>
       <c r="N5" s="4">
-        <v>3.5954999999999999</v>
+        <v>2.5011000000000001</v>
       </c>
       <c r="O5" s="2">
         <f t="shared" si="4"/>
-        <v>1052.6416505453583</v>
-      </c>
-      <c r="P5" s="2">
-        <f>He!$N$5</f>
-        <v>556.80467323352707</v>
+        <v>724.01890072605954</v>
+      </c>
+      <c r="P5">
+        <f>He!$N5</f>
+        <v>369.19636264827909</v>
       </c>
       <c r="Q5" s="2">
         <f t="shared" si="5"/>
-        <v>1.7264616707383602</v>
+        <v>1.2415575820348193</v>
       </c>
       <c r="S5" s="4">
-        <v>30.002600000000001</v>
+        <v>15.0192</v>
       </c>
       <c r="T5" s="4">
-        <v>3.2578999999999998</v>
+        <v>2.0964</v>
       </c>
       <c r="U5">
         <f t="shared" si="6"/>
-        <v>950.47522846826769</v>
+        <v>604.35769062628958</v>
       </c>
       <c r="V5">
-        <f>He!$S$5</f>
-        <v>469.71510889252869</v>
+        <f>He!$S5</f>
+        <v>331.10209661879009</v>
       </c>
       <c r="W5">
         <f t="shared" si="7"/>
-        <v>1.6748445817802733</v>
+        <v>0.9588838935948647</v>
       </c>
       <c r="Y5" s="4">
-        <v>30.0427</v>
+        <v>14.9886</v>
       </c>
       <c r="Z5" s="4">
-        <v>3.024</v>
+        <v>1.9165000000000001</v>
       </c>
       <c r="AA5">
         <f t="shared" si="8"/>
-        <v>880.10823296485728</v>
+        <v>551.48211472877699</v>
       </c>
       <c r="AB5">
-        <f>He!$X$5</f>
-        <v>460.38254361446803</v>
+        <f>He!$X5</f>
+        <v>318.25507056741679</v>
       </c>
       <c r="AC5">
         <f t="shared" si="9"/>
-        <v>1.4653320378167196</v>
+        <v>0.81957052174980627</v>
       </c>
       <c r="AE5" s="4">
-        <v>30.031500000000001</v>
+        <v>15.0101</v>
       </c>
       <c r="AF5" s="4">
-        <v>2.3871000000000002</v>
+        <v>1.502</v>
       </c>
       <c r="AG5">
         <f t="shared" si="10"/>
-        <v>690.21113397921795</v>
+        <v>430.38892160246911</v>
       </c>
       <c r="AH5">
-        <f>He!$AC$5</f>
-        <v>332.8423882002067</v>
+        <f>He!$AC5</f>
+        <v>238.1002837340923</v>
       </c>
       <c r="AI5">
         <f t="shared" si="11"/>
-        <v>1.250355603881947</v>
+        <v>0.67668456046060621</v>
       </c>
     </row>
     <row r="6" spans="1:35">
       <c r="A6" s="4">
-        <v>49.981999999999999</v>
-      </c>
-      <c r="B6" s="4"/>
+        <v>30.001799999999999</v>
+      </c>
+      <c r="B6" s="4">
+        <v>4.4021999999999997</v>
+      </c>
       <c r="C6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1299.6919678067907</v>
       </c>
       <c r="D6">
-        <f>He!$D$6</f>
-        <v>0</v>
+        <f>He!$D6</f>
+        <v>556.85294587741328</v>
       </c>
       <c r="E6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2.5644462668743744</v>
       </c>
       <c r="G6" s="4">
-        <v>49.976599999999998</v>
-      </c>
-      <c r="H6" s="4"/>
+        <v>29.989899999999999</v>
+      </c>
+      <c r="H6" s="4">
+        <v>3.9975999999999998</v>
+      </c>
       <c r="I6">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1175.2650183745407</v>
       </c>
       <c r="J6">
-        <f>He!$I$6</f>
-        <v>0</v>
+        <f>He!$I6</f>
+        <v>626.79997516693322</v>
       </c>
       <c r="K6">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1.9062149954269736</v>
       </c>
       <c r="M6" s="4">
-        <v>49.9908</v>
-      </c>
-      <c r="N6" s="4"/>
+        <v>30.001000000000001</v>
+      </c>
+      <c r="N6" s="4">
+        <v>3.5954999999999999</v>
+      </c>
       <c r="O6" s="2">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="P6" s="2">
-        <f>He!$N$6</f>
-        <v>0</v>
+        <v>1052.6416505453583</v>
+      </c>
+      <c r="P6">
+        <f>He!$N6</f>
+        <v>553.90943792861162</v>
       </c>
       <c r="Q6" s="2">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1.736367588309282</v>
       </c>
       <c r="S6" s="4">
-        <v>50.025399999999998</v>
-      </c>
-      <c r="T6" s="4"/>
+        <v>30.002600000000001</v>
+      </c>
+      <c r="T6" s="4">
+        <v>3.2578999999999998</v>
+      </c>
       <c r="U6">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>950.47522846826769</v>
       </c>
       <c r="V6">
-        <f>He!$S$6</f>
-        <v>0</v>
+        <f>He!$S6</f>
+        <v>521.14836300364971</v>
       </c>
       <c r="W6">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1.4983491008929877</v>
       </c>
       <c r="Y6" s="4">
-        <v>50.030700000000003</v>
-      </c>
-      <c r="Z6" s="4"/>
+        <v>29.979199999999999</v>
+      </c>
+      <c r="Z6" s="4">
+        <v>2.9436</v>
+      </c>
       <c r="AA6">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>855.9988460317918</v>
       </c>
       <c r="AB6">
-        <f>He!$X$6</f>
-        <v>0</v>
+        <f>He!$X6</f>
+        <v>453.47361398414864</v>
       </c>
       <c r="AC6">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1.4061267610538097</v>
       </c>
       <c r="AE6" s="4">
-        <v>50.021999999999998</v>
-      </c>
-      <c r="AF6" s="4"/>
+        <v>29.965599999999998</v>
+      </c>
+      <c r="AF6" s="4">
+        <v>2.4470999999999998</v>
+      </c>
       <c r="AG6">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>707.99484587336713</v>
       </c>
       <c r="AH6">
-        <f>He!$AC$6</f>
-        <v>0</v>
+        <f>He!$AC6</f>
+        <v>393.58519373151933</v>
       </c>
       <c r="AI6">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1.1017069835853692</v>
       </c>
     </row>
     <row r="7" spans="1:35">
-      <c r="A7" s="4">
-        <v>69.981999999999999</v>
-      </c>
+      <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D7">
-        <f>He!$D$7</f>
+        <f>He!$D7</f>
         <v>0</v>
       </c>
       <c r="E7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G7" s="4">
-        <v>70.035600000000002</v>
-      </c>
+      <c r="G7" s="4"/>
       <c r="H7" s="4"/>
       <c r="I7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J7">
-        <f>He!$I$7</f>
+        <f>He!$I7</f>
         <v>0</v>
       </c>
       <c r="K7">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M7" s="4">
-        <v>70.002399999999994</v>
-      </c>
+      <c r="M7" s="4"/>
       <c r="N7" s="4"/>
       <c r="O7" s="2">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="P7" s="2">
-        <f>He!$N$7</f>
+      <c r="P7">
+        <f>He!$N7</f>
         <v>0</v>
       </c>
       <c r="Q7" s="2">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="S7" s="4">
-        <v>69.965800000000002</v>
-      </c>
+      <c r="S7" s="4"/>
       <c r="T7" s="4"/>
       <c r="U7">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V7">
-        <f>He!$S$7</f>
+        <f>He!$S7</f>
         <v>0</v>
       </c>
       <c r="W7">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Y7" s="4">
-        <v>69.904600000000002</v>
-      </c>
+      <c r="Y7" s="4"/>
       <c r="Z7" s="4"/>
       <c r="AA7">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AB7">
-        <f>He!$X$7</f>
+        <f>He!$X7</f>
         <v>0</v>
       </c>
       <c r="AC7">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AE7" s="4">
-        <v>70.001999999999995</v>
-      </c>
+      <c r="AE7" s="4"/>
       <c r="AF7" s="4"/>
       <c r="AG7">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AH7">
-        <f>He!$AC$7</f>
+        <f>He!$AC7</f>
         <v>0</v>
       </c>
       <c r="AI7">
@@ -2753,96 +4238,84 @@
       </c>
     </row>
     <row r="8" spans="1:35">
-      <c r="A8" s="4">
-        <v>100.0042</v>
-      </c>
+      <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D8">
-        <f>He!$D$8</f>
+        <f>He!$D8</f>
         <v>0</v>
       </c>
       <c r="E8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G8" s="4">
-        <v>99.998699999999999</v>
-      </c>
+      <c r="G8" s="4"/>
       <c r="H8" s="4"/>
       <c r="I8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J8">
-        <f>He!$I$8</f>
+        <f>He!$I8</f>
         <v>0</v>
       </c>
       <c r="K8">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M8" s="4">
-        <v>100.00069999999999</v>
-      </c>
+      <c r="M8" s="4"/>
       <c r="N8" s="4"/>
       <c r="O8">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P8">
-        <f>He!$N$8</f>
+        <f>He!$N8</f>
         <v>0</v>
       </c>
       <c r="Q8">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="S8" s="4">
-        <v>100.03789999999999</v>
-      </c>
+      <c r="S8" s="4"/>
       <c r="T8" s="4"/>
       <c r="U8">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V8">
-        <f>He!$S$8</f>
+        <f>He!$S8</f>
         <v>0</v>
       </c>
       <c r="W8">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Y8" s="4">
-        <v>99.887299999999996</v>
-      </c>
+      <c r="Y8" s="4"/>
       <c r="Z8" s="4"/>
       <c r="AA8">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AB8">
-        <f>He!$X$8</f>
+        <f>He!$X8</f>
         <v>0</v>
       </c>
       <c r="AC8">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AE8" s="4">
-        <v>100.0027</v>
-      </c>
+      <c r="AE8" s="4"/>
       <c r="AF8" s="4"/>
       <c r="AG8">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AH8">
-        <f>He!$AC$8</f>
+        <f>He!$AC8</f>
         <v>0</v>
       </c>
       <c r="AI8">
@@ -2850,24 +4323,110 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35">
-      <c r="A10" t="s">
+    <row r="9" spans="1:35">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9">
+        <f t="shared" ref="C9" si="12">(B9/100)*($B$14)/(1-B9/100)</f>
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <f>He!$D9</f>
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <f t="shared" ref="E9" si="13">(C9-D9)/($B$14+C9-D9)*100</f>
+        <v>0</v>
+      </c>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9">
+        <f t="shared" ref="I9" si="14">(H9/100)*($B$14)/(1-H9/100)</f>
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <f>He!$I9</f>
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <f t="shared" ref="K9" si="15">(I9-J9)/($B$14+I9-J9)*100</f>
+        <v>0</v>
+      </c>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9">
+        <f t="shared" ref="O9" si="16">(N9/100)*($B$14)/(1-N9/100)</f>
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <f>He!$N9</f>
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" ref="Q9" si="17">(O9-P9)/($B$14+O9-P9)*100</f>
+        <v>0</v>
+      </c>
+      <c r="S9" s="4"/>
+      <c r="T9" s="4"/>
+      <c r="U9">
+        <f t="shared" ref="U9" si="18">(T9/100)*($B$14)/(1-T9/100)</f>
+        <v>0</v>
+      </c>
+      <c r="V9">
+        <f>He!$S9</f>
+        <v>0</v>
+      </c>
+      <c r="W9">
+        <f t="shared" ref="W9" si="19">(U9-V9)/($B$14+U9-V9)*100</f>
+        <v>0</v>
+      </c>
+      <c r="Y9" s="4"/>
+      <c r="Z9" s="4"/>
+      <c r="AA9">
+        <f t="shared" ref="AA9" si="20">(Z9/100)*($B$14)/(1-Z9/100)</f>
+        <v>0</v>
+      </c>
+      <c r="AB9">
+        <f>He!$X9</f>
+        <v>0</v>
+      </c>
+      <c r="AC9">
+        <f t="shared" ref="AC9" si="21">(AA9-AB9)/($B$14+AA9-AB9)*100</f>
+        <v>0</v>
+      </c>
+      <c r="AE9" s="4"/>
+      <c r="AF9" s="4"/>
+      <c r="AG9">
+        <f t="shared" ref="AG9" si="22">(AF9/100)*($B$14)/(1-AF9/100)</f>
+        <v>0</v>
+      </c>
+      <c r="AH9">
+        <f>He!$AC9</f>
+        <v>0</v>
+      </c>
+      <c r="AI9">
+        <f t="shared" ref="AI9" si="23">(AG9-AH9)/($B$14+AG9-AH9)*100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:35">
+      <c r="A11" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:35">
-      <c r="A12" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:35">
       <c r="A13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:35">
+      <c r="A14" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B14" s="4">
         <f xml:space="preserve"> 2304*12+576</f>
         <v>28224</v>
       </c>
@@ -2882,10 +4441,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9323AA30-3DDC-4545-83D0-069D8AFD5649}">
-  <dimension ref="A1:AC20"/>
+  <dimension ref="A1:AC21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -3000,340 +4559,350 @@
     </row>
     <row r="3" spans="1:29">
       <c r="A3" s="4">
-        <v>4.9913999999999996</v>
+        <v>2.5345</v>
       </c>
       <c r="B3" s="4">
-        <v>101.9455</v>
+        <v>80.801000000000002</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:C8" si="0">B3/($B$15 + $B$16*EXP(-(A3-$B$20)/$B$17)+$B$18*EXP(-(A3-$B$20)/$B$19))</f>
-        <v>91478.98695057779</v>
+        <f t="shared" ref="C3:C8" si="0">B3/($B$16 + $B$17*EXP(-(A3-$B$21)/$B$18)+$B$19*EXP(-(A3-$B$21)/$B$20))</f>
+        <v>125748.24105593745</v>
       </c>
       <c r="D3">
-        <f>C3*($C$15 + $C$16*EXP(-(A3-$C$20)/$C$17)+$C$18*EXP(-(A3-$C$20)/$C$19))*2</f>
-        <v>236.6114439031154</v>
+        <f>C3*($C$16 + $C$17*EXP(-(A3-$C$21)/$C$18)+$C$19*EXP(-(A3-$C$21)/$C$20))*2</f>
+        <v>173.48685985081411</v>
       </c>
       <c r="F3" s="4">
-        <v>4.9993999999999996</v>
+        <v>2.4834000000000001</v>
       </c>
       <c r="G3" s="4">
-        <v>92.248599999999996</v>
+        <v>69.702200000000005</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H8" si="1">G3/($G$15 + $G$16*EXP(-(F3-$G$20)/$G$17)+$G$18*EXP(-(F3-$G$20)/$G$19))</f>
-        <v>86446.241549900165</v>
+        <f t="shared" ref="H3:H8" si="1">G3/($G$16 + $G$17*EXP(-(F3-$G$21)/$G$18)+$G$19*EXP(-(F3-$G$21)/$G$20))</f>
+        <v>115913.52005373704</v>
       </c>
       <c r="I3">
-        <f>H3*($H$15 + $H$16*EXP(-(F3-$H$20)/$H$17)+$H$18*EXP(-(F3-$H$20)/$H$19))*2</f>
-        <v>249.34046170314397</v>
+        <f>H3*($H$16 + $H$17*EXP(-(F3-$H$21)/$H$18)+$H$19*EXP(-(F3-$H$21)/$H$20))*2</f>
+        <v>177.68092425114668</v>
       </c>
       <c r="K3" s="4">
-        <v>5.0366999999999997</v>
+        <v>2.5171000000000001</v>
       </c>
       <c r="L3" s="4">
-        <v>72.681100000000001</v>
+        <v>59.867800000000003</v>
       </c>
       <c r="M3">
-        <f>L3/($L$15 + $L$16*EXP(-(K3-$L$20)/$L$17)+$L$18*EXP(-(K3-$L$20)/$L$19))</f>
-        <v>73363.638885437686</v>
+        <f>L3/($L$16 + $L$17*EXP(-(K3-$L$21)/$L$18)+$L$19*EXP(-(K3-$L$21)/$L$20))</f>
+        <v>107119.83452076113</v>
       </c>
       <c r="N3">
-        <f>M3*($M$15 + $M$16*EXP(-(K3-$M$20)/$M$17)+$M$18*EXP(-(K3-$M$20)/$M$19))*2</f>
-        <v>191.36604330085166</v>
+        <f>M3*($M$16 + $M$17*EXP(-(K3-$M$21)/$M$18)+$M$19*EXP(-(K3-$M$21)/$M$20))*2</f>
+        <v>146.85833903159499</v>
       </c>
       <c r="P3" s="4">
-        <v>5.0301999999999998</v>
+        <v>2.5234999999999999</v>
       </c>
       <c r="Q3" s="4">
-        <v>67.467100000000002</v>
+        <v>44.8123</v>
       </c>
       <c r="R3">
-        <f t="shared" ref="R3:R8" si="2">Q3/($Q$15 + $Q$16*EXP(-(P3-$Q$20)/$Q$17)+$Q$18*EXP(-(P3-$Q$20)/$Q$19))</f>
-        <v>72655.766181308456</v>
+        <f t="shared" ref="R3:R8" si="2">Q3/($Q$16 + $Q$17*EXP(-(P3-$Q$21)/$Q$18)+$Q$19*EXP(-(P3-$Q$21)/$Q$20))</f>
+        <v>86067.736795847784</v>
       </c>
       <c r="S3">
-        <f>R3*($R$15 + $R$16*EXP(-(P3-$R$20)/$R$17)+$R$18*EXP(-(P3-$R$20)/$R$19))*2</f>
-        <v>174.05310223785571</v>
+        <f>R3*($R$16 + $R$17*EXP(-(P3-$R$21)/$R$18)+$R$19*EXP(-(P3-$R$21)/$R$20))*2</f>
+        <v>107.71032427902193</v>
       </c>
       <c r="U3" s="4">
-        <v>4.9870999999999999</v>
+        <v>2.5634999999999999</v>
       </c>
       <c r="V3" s="4">
-        <v>58.651400000000002</v>
+        <v>48.160200000000003</v>
       </c>
       <c r="W3">
-        <f>V3/($V$15 + $V$16*EXP(-(U3-$V$20)/$V$17)+$V$18*EXP(-(U3-$V$20)/$V$19))</f>
-        <v>65599.943764182492</v>
+        <f>V3/($V$16 + $V$17*EXP(-(U3-$V$21)/$V$18)+$V$19*EXP(-(U3-$V$21)/$V$20))</f>
+        <v>94393.303600573374</v>
       </c>
       <c r="X3">
-        <f>W3*($W$15 + $W$16*EXP(-(U3-$W$20)/$W$17)+$W$18*EXP(-(U3-$W$20)/$W$19))*2</f>
-        <v>149.06390248152044</v>
+        <f>W3*($W$16 + $W$17*EXP(-(U3-$W$21)/$W$18)+$W$19*EXP(-(U3-$W$21)/$W$20))*2</f>
+        <v>115.67178118463731</v>
       </c>
       <c r="Z3" s="4">
-        <v>5.0431999999999997</v>
+        <v>2.5160999999999998</v>
       </c>
       <c r="AA3" s="4">
-        <v>53.0443</v>
+        <v>33.088700000000003</v>
       </c>
       <c r="AB3">
-        <f>AA3/($AA$15 + $AA$16*EXP(-(Z3-$AA$20)/$AA$17)+$AA$18*EXP(-(Z3-$AA$20)/$AA$19))</f>
-        <v>65584.138081626719</v>
+        <f>AA3/($AA$16 + $AA$17*EXP(-(Z3-$AA$21)/$AA$18)+$AA$19*EXP(-(Z3-$AA$21)/$AA$20))</f>
+        <v>74126.491543552504</v>
       </c>
       <c r="AC3">
-        <f>AB3*($AB$15 + $AB$16*EXP(-(Z3-$AB$20)/$AB$17)+$AB$18*EXP(-(Z3-$AB$20)/$AB$19))*2</f>
-        <v>132.05443998416902</v>
+        <f>AB3*($AB$16 + $AB$17*EXP(-(Z3-$AB$21)/$AB$18)+$AB$19*EXP(-(Z3-$AB$21)/$AB$20))*2</f>
+        <v>78.750528813496032</v>
       </c>
     </row>
     <row r="4" spans="1:29">
       <c r="A4" s="4">
-        <v>14.9946</v>
+        <v>4.9913999999999996</v>
       </c>
       <c r="B4" s="4">
-        <v>122.3262</v>
+        <v>101.9455</v>
       </c>
       <c r="C4">
         <f t="shared" si="0"/>
-        <v>52430.660889315914</v>
+        <v>91478.98695057779</v>
       </c>
       <c r="D4">
-        <f t="shared" ref="D4:D8" si="3">C4*($C$15 + $C$16*EXP(-(A4-$C$20)/$C$17)+$C$18*EXP(-(A4-$C$20)/$C$19))*2</f>
-        <v>376.34161517421109</v>
+        <f t="shared" ref="D4:D8" si="3">C4*($C$16 + $C$17*EXP(-(A4-$C$21)/$C$18)+$C$19*EXP(-(A4-$C$21)/$C$20))*2</f>
+        <v>236.6114439031154</v>
       </c>
       <c r="F4" s="4">
-        <v>14.9964</v>
+        <v>5.0332999999999997</v>
       </c>
       <c r="G4" s="4">
-        <v>123.0992</v>
+        <v>92.314800000000005</v>
       </c>
       <c r="H4">
         <f t="shared" si="1"/>
-        <v>54337.814523332861</v>
+        <v>86052.188553064872</v>
       </c>
       <c r="I4">
-        <f t="shared" ref="I4:I8" si="4">H4*($H$15 + $H$16*EXP(-(F4-$H$20)/$H$17)+$H$18*EXP(-(F4-$H$20)/$H$19))*2</f>
-        <v>428.02464349505459</v>
+        <f t="shared" ref="I4:I8" si="4">H4*($H$16 + $H$17*EXP(-(F4-$H$21)/$H$18)+$H$19*EXP(-(F4-$H$21)/$H$20))*2</f>
+        <v>249.74752745577493</v>
       </c>
       <c r="K4" s="4">
-        <v>15.0373</v>
+        <v>4.9977999999999998</v>
       </c>
       <c r="L4" s="4">
-        <v>106.50709999999999</v>
+        <v>77.944900000000004</v>
       </c>
       <c r="M4">
-        <f t="shared" ref="M4:M8" si="5">L4/($L$15 + $L$16*EXP(-(K4-$L$20)/$L$17)+$L$18*EXP(-(K4-$L$20)/$L$19))</f>
-        <v>49544.266973580001</v>
+        <f t="shared" ref="M4:M8" si="5">L4/($L$16 + $L$17*EXP(-(K4-$L$21)/$L$18)+$L$19*EXP(-(K4-$L$21)/$L$20))</f>
+        <v>79164.44088783607</v>
       </c>
       <c r="N4">
-        <f t="shared" ref="N4:N8" si="6">M4*($M$15 + $M$16*EXP(-(K4-$M$20)/$M$17)+$M$18*EXP(-(K4-$M$20)/$M$19))*2</f>
-        <v>356.54205315214972</v>
+        <f t="shared" ref="N4:N8" si="6">M4*($M$16 + $M$17*EXP(-(K4-$M$21)/$M$18)+$M$19*EXP(-(K4-$M$21)/$M$20))*2</f>
+        <v>205.00525242971679</v>
       </c>
       <c r="P4" s="4">
-        <v>15.0124</v>
+        <v>4.9858000000000002</v>
       </c>
       <c r="Q4" s="4">
-        <v>99.955600000000004</v>
+        <v>71.027699999999996</v>
       </c>
       <c r="R4">
         <f t="shared" si="2"/>
-        <v>48762.769582689958</v>
+        <v>77041.662815135118</v>
       </c>
       <c r="S4">
-        <f t="shared" ref="S4:S8" si="7">R4*($R$15 + $R$16*EXP(-(P4-$R$20)/$R$17)+$R$18*EXP(-(P4-$R$20)/$R$19))*2</f>
-        <v>325.24517773751114</v>
+        <f t="shared" ref="S4:S8" si="7">R4*($R$16 + $R$17*EXP(-(P4-$R$21)/$R$18)+$R$19*EXP(-(P4-$R$21)/$R$20))*2</f>
+        <v>183.01834792818511</v>
       </c>
       <c r="U4" s="4">
-        <v>14.937799999999999</v>
+        <v>5.0317999999999996</v>
       </c>
       <c r="V4" s="4">
-        <v>102.6739</v>
+        <v>60.259700000000002</v>
       </c>
       <c r="W4">
-        <f t="shared" ref="W4:W8" si="8">V4/($V$15 + $V$16*EXP(-(U4-$V$20)/$V$17)+$V$18*EXP(-(U4-$V$20)/$V$19))</f>
-        <v>51953.060636807</v>
+        <f t="shared" ref="W4:W8" si="8">V4/($V$16 + $V$17*EXP(-(U4-$V$21)/$V$18)+$V$19*EXP(-(U4-$V$21)/$V$20))</f>
+        <v>67171.962965544531</v>
       </c>
       <c r="X4">
-        <f t="shared" ref="X4:X8" si="9">W4*($W$15 + $W$16*EXP(-(U4-$W$20)/$W$17)+$W$18*EXP(-(U4-$W$20)/$W$19))*2</f>
-        <v>328.28160493536751</v>
+        <f t="shared" ref="X4:X8" si="9">W4*($W$16 + $W$17*EXP(-(U4-$W$21)/$W$18)+$W$19*EXP(-(U4-$W$21)/$W$20))*2</f>
+        <v>153.91734140180196</v>
       </c>
       <c r="Z4" s="4">
-        <v>14.9808</v>
+        <v>5.0366</v>
       </c>
       <c r="AA4" s="4">
-        <v>81.668300000000002</v>
+        <v>50.879100000000001</v>
       </c>
       <c r="AB4">
-        <f t="shared" ref="AB4:AB8" si="10">AA4/($AA$15 + $AA$16*EXP(-(Z4-$AA$20)/$AA$17)+$AA$18*EXP(-(Z4-$AA$20)/$AA$19))</f>
-        <v>44607.765789132463</v>
+        <f t="shared" ref="AB4:AB8" si="10">AA4/($AA$16 + $AA$17*EXP(-(Z4-$AA$21)/$AA$18)+$AA$19*EXP(-(Z4-$AA$21)/$AA$20))</f>
+        <v>62975.362828884266</v>
       </c>
       <c r="AC4">
-        <f t="shared" ref="AC4:AC8" si="11">AB4*($AB$15 + $AB$16*EXP(-(Z4-$AB$20)/$AB$17)+$AB$18*EXP(-(Z4-$AB$20)/$AB$19))*2</f>
-        <v>248.04850652803421</v>
+        <f t="shared" ref="AC4:AC8" si="11">AB4*($AB$16 + $AB$17*EXP(-(Z4-$AB$21)/$AB$18)+$AB$19*EXP(-(Z4-$AB$21)/$AB$20))*2</f>
+        <v>126.64688808446761</v>
       </c>
     </row>
     <row r="5" spans="1:29">
       <c r="A5" s="4">
-        <v>29.9819</v>
+        <v>14.9946</v>
       </c>
       <c r="B5" s="4">
-        <v>138.9171</v>
+        <v>122.3262</v>
       </c>
       <c r="C5">
         <f t="shared" si="0"/>
-        <v>42233.791026056919</v>
+        <v>52430.660889315914</v>
       </c>
       <c r="D5">
         <f t="shared" si="3"/>
-        <v>556.85294587741328</v>
+        <v>376.34161517421109</v>
       </c>
       <c r="F5" s="4">
-        <v>30.008199999999999</v>
+        <v>14.991099999999999</v>
       </c>
       <c r="G5" s="4">
-        <v>140.69649999999999</v>
+        <v>123.3098</v>
       </c>
       <c r="H5">
         <f t="shared" si="1"/>
-        <v>43658.760924306909</v>
+        <v>54441.795661679091</v>
       </c>
       <c r="I5">
         <f t="shared" si="4"/>
-        <v>626.79997516693322</v>
+        <v>428.70788398600206</v>
       </c>
       <c r="K5" s="4">
-        <v>30.0245</v>
+        <v>15.012700000000001</v>
       </c>
       <c r="L5" s="4">
-        <v>130.6174</v>
+        <v>110.3428</v>
       </c>
       <c r="M5">
         <f t="shared" si="5"/>
-        <v>42179.830999279919</v>
+        <v>51378.940381332228</v>
       </c>
       <c r="N5">
         <f t="shared" si="6"/>
-        <v>556.80467323352707</v>
+        <v>369.19636264827909</v>
       </c>
       <c r="P5" s="4">
-        <v>29.9939</v>
+        <v>15.0093</v>
       </c>
       <c r="Q5" s="4">
-        <v>114.25369999999999</v>
+        <v>101.76179999999999</v>
       </c>
       <c r="R5">
         <f t="shared" si="2"/>
-        <v>38130.824053401207</v>
+        <v>49650.258712073133</v>
       </c>
       <c r="S5">
         <f t="shared" si="7"/>
-        <v>469.71510889252869</v>
+        <v>331.10209661879009</v>
       </c>
       <c r="U5" s="4">
-        <v>29.989899999999999</v>
+        <v>14.983599999999999</v>
       </c>
       <c r="V5" s="4">
-        <v>114.31529999999999</v>
+        <v>99.884600000000006</v>
       </c>
       <c r="W5">
         <f t="shared" si="8"/>
-        <v>39217.410125887356</v>
+        <v>50225.372732069038</v>
       </c>
       <c r="X5">
         <f t="shared" si="9"/>
-        <v>460.38254361446803</v>
+        <v>318.25507056741679</v>
       </c>
       <c r="Z5" s="4">
-        <v>30.0077</v>
+        <v>15.008699999999999</v>
       </c>
       <c r="AA5" s="4">
-        <v>88.137500000000003</v>
+        <v>78.353800000000007</v>
       </c>
       <c r="AB5">
         <f t="shared" si="10"/>
-        <v>32047.780701292191</v>
+        <v>42745.383059525448</v>
       </c>
       <c r="AC5">
         <f t="shared" si="11"/>
-        <v>332.8423882002067</v>
+        <v>238.1002837340923</v>
       </c>
     </row>
     <row r="6" spans="1:29">
       <c r="A6" s="4">
-        <v>50.028500000000001</v>
-      </c>
-      <c r="B6" s="4"/>
+        <v>29.9819</v>
+      </c>
+      <c r="B6" s="4">
+        <v>138.9171</v>
+      </c>
       <c r="C6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>42233.791026056919</v>
       </c>
       <c r="D6">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>556.85294587741328</v>
       </c>
       <c r="F6" s="4">
-        <v>49.991100000000003</v>
-      </c>
-      <c r="G6" s="4"/>
+        <v>30.008199999999999</v>
+      </c>
+      <c r="G6" s="4">
+        <v>140.69649999999999</v>
+      </c>
       <c r="H6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>43658.760924306909</v>
       </c>
       <c r="I6">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>626.79997516693322</v>
       </c>
       <c r="K6" s="4">
-        <v>49.983800000000002</v>
-      </c>
-      <c r="L6" s="4"/>
+        <v>30.0029</v>
+      </c>
+      <c r="L6" s="4">
+        <v>129.97309999999999</v>
+      </c>
       <c r="M6">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>41985.860416037656</v>
       </c>
       <c r="N6">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>553.90943792861162</v>
       </c>
       <c r="P6" s="4">
-        <v>50.005499999999998</v>
-      </c>
-      <c r="Q6" s="4"/>
+        <v>30.041899999999998</v>
+      </c>
+      <c r="Q6" s="4">
+        <v>126.6908</v>
+      </c>
       <c r="R6" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>42248.666348952123</v>
       </c>
       <c r="S6">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>521.14836300364971</v>
       </c>
       <c r="U6" s="4">
-        <v>49.951799999999999</v>
-      </c>
-      <c r="V6" s="4"/>
+        <v>29.9983</v>
+      </c>
+      <c r="V6" s="4">
+        <v>113.354</v>
+      </c>
       <c r="W6">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>38619.635850345388</v>
       </c>
       <c r="X6">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>453.47361398414864</v>
       </c>
       <c r="Z6" s="4">
-        <v>49.998899999999999</v>
-      </c>
-      <c r="AA6" s="4"/>
+        <v>29.990400000000001</v>
+      </c>
+      <c r="AA6" s="4">
+        <v>104.2431</v>
+      </c>
       <c r="AB6">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>37915.429267589541</v>
       </c>
       <c r="AC6">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>393.58519373151933</v>
       </c>
     </row>
     <row r="7" spans="1:29">
-      <c r="A7" s="4">
-        <v>70.024699999999996</v>
-      </c>
+      <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7">
         <f t="shared" si="0"/>
@@ -3343,9 +4912,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F7" s="4">
-        <v>70.005300000000005</v>
-      </c>
+      <c r="F7" s="4"/>
       <c r="G7" s="4"/>
       <c r="H7">
         <f t="shared" si="1"/>
@@ -3355,9 +4922,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K7" s="4">
-        <v>70.011099999999999</v>
-      </c>
+      <c r="K7" s="4"/>
       <c r="L7" s="4"/>
       <c r="M7">
         <f t="shared" si="5"/>
@@ -3367,9 +4932,7 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="P7" s="4">
-        <v>70.029899999999998</v>
-      </c>
+      <c r="P7" s="4"/>
       <c r="Q7" s="4"/>
       <c r="R7" s="3">
         <f t="shared" si="2"/>
@@ -3379,9 +4942,7 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="U7" s="4">
-        <v>70.017799999999994</v>
-      </c>
+      <c r="U7" s="4"/>
       <c r="V7" s="4"/>
       <c r="W7" s="3">
         <f t="shared" si="8"/>
@@ -3391,9 +4952,7 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="Z7" s="4">
-        <v>70.036600000000007</v>
-      </c>
+      <c r="Z7" s="4"/>
       <c r="AA7" s="4"/>
       <c r="AB7">
         <f t="shared" si="10"/>
@@ -3405,9 +4964,7 @@
       </c>
     </row>
     <row r="8" spans="1:29">
-      <c r="A8" s="4">
-        <v>100.0535</v>
-      </c>
+      <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8">
         <f t="shared" si="0"/>
@@ -3417,9 +4974,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F8" s="4">
-        <v>100.0016</v>
-      </c>
+      <c r="F8" s="4"/>
       <c r="G8" s="4"/>
       <c r="H8">
         <f t="shared" si="1"/>
@@ -3429,9 +4984,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K8" s="4">
-        <v>100.0258</v>
-      </c>
+      <c r="K8" s="4"/>
       <c r="L8" s="4"/>
       <c r="M8">
         <f t="shared" si="5"/>
@@ -3441,9 +4994,7 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="P8" s="4">
-        <v>100.018</v>
-      </c>
+      <c r="P8" s="4"/>
       <c r="Q8" s="4"/>
       <c r="R8">
         <f t="shared" si="2"/>
@@ -3453,9 +5004,7 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="U8" s="4">
-        <v>99.965500000000006</v>
-      </c>
+      <c r="U8" s="4"/>
       <c r="V8" s="4"/>
       <c r="W8">
         <f t="shared" si="8"/>
@@ -3465,9 +5014,7 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="Z8" s="4">
-        <v>100.0183</v>
-      </c>
+      <c r="Z8" s="4"/>
       <c r="AA8" s="4"/>
       <c r="AB8">
         <f t="shared" si="10"/>
@@ -3478,413 +5025,475 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:29">
-      <c r="A10" t="s">
-        <v>26</v>
+    <row r="9" spans="1:29">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9">
+        <f>B9/($B$16 + $B$17*EXP(-(A9-$B$21)/$B$18)+$B$19*EXP(-(A9-$B$21)/$B$20))</f>
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <f t="shared" ref="D9" si="12">C9*($C$16 + $C$17*EXP(-(A9-$C$21)/$C$18)+$C$19*EXP(-(A9-$C$21)/$C$20))*2</f>
+        <v>0</v>
+      </c>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9">
+        <f t="shared" ref="H9" si="13">G9/($G$16 + $G$17*EXP(-(F9-$G$21)/$G$18)+$G$19*EXP(-(F9-$G$21)/$G$20))</f>
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <f t="shared" ref="I9" si="14">H9*($H$16 + $H$17*EXP(-(F9-$H$21)/$H$18)+$H$19*EXP(-(F9-$H$21)/$H$20))*2</f>
+        <v>0</v>
+      </c>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9">
+        <f t="shared" ref="M9" si="15">L9/($L$16 + $L$17*EXP(-(K9-$L$21)/$L$18)+$L$19*EXP(-(K9-$L$21)/$L$20))</f>
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <f t="shared" ref="N9" si="16">M9*($M$16 + $M$17*EXP(-(K9-$M$21)/$M$18)+$M$19*EXP(-(K9-$M$21)/$M$20))*2</f>
+        <v>0</v>
+      </c>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
+      <c r="R9">
+        <f t="shared" ref="R9" si="17">Q9/($Q$16 + $Q$17*EXP(-(P9-$Q$21)/$Q$18)+$Q$19*EXP(-(P9-$Q$21)/$Q$20))</f>
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <f t="shared" ref="S9" si="18">R9*($R$16 + $R$17*EXP(-(P9-$R$21)/$R$18)+$R$19*EXP(-(P9-$R$21)/$R$20))*2</f>
+        <v>0</v>
+      </c>
+      <c r="U9" s="4"/>
+      <c r="V9" s="4"/>
+      <c r="W9">
+        <f t="shared" ref="W9" si="19">V9/($V$16 + $V$17*EXP(-(U9-$V$21)/$V$18)+$V$19*EXP(-(U9-$V$21)/$V$20))</f>
+        <v>0</v>
+      </c>
+      <c r="X9">
+        <f t="shared" ref="X9" si="20">W9*($W$16 + $W$17*EXP(-(U9-$W$21)/$W$18)+$W$19*EXP(-(U9-$W$21)/$W$20))*2</f>
+        <v>0</v>
+      </c>
+      <c r="Z9" s="4"/>
+      <c r="AA9" s="4"/>
+      <c r="AB9">
+        <f t="shared" ref="AB9" si="21">AA9/($AA$16 + $AA$17*EXP(-(Z9-$AA$21)/$AA$18)+$AA$19*EXP(-(Z9-$AA$21)/$AA$20))</f>
+        <v>0</v>
+      </c>
+      <c r="AC9">
+        <f t="shared" ref="AC9" si="22">AB9*($AB$16 + $AB$17*EXP(-(Z9-$AB$21)/$AB$18)+$AB$19*EXP(-(Z9-$AB$21)/$AB$20))*2</f>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:29">
-      <c r="A11" s="5" t="s">
+      <c r="A11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29">
+      <c r="A12" s="5" t="s">
         <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:29">
-      <c r="A13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:29">
       <c r="A14" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B14" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" t="s">
-        <v>10</v>
-      </c>
-      <c r="F14" t="s">
-        <v>25</v>
-      </c>
-      <c r="G14" t="s">
-        <v>11</v>
-      </c>
-      <c r="H14" t="s">
-        <v>10</v>
-      </c>
-      <c r="K14" t="s">
-        <v>25</v>
-      </c>
-      <c r="L14" t="s">
-        <v>11</v>
-      </c>
-      <c r="M14" t="s">
-        <v>10</v>
-      </c>
-      <c r="P14" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>11</v>
-      </c>
-      <c r="R14" t="s">
-        <v>10</v>
-      </c>
-      <c r="U14" t="s">
-        <v>25</v>
-      </c>
-      <c r="V14" t="s">
-        <v>11</v>
-      </c>
-      <c r="W14" t="s">
-        <v>10</v>
-      </c>
-      <c r="Z14" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA14" t="s">
-        <v>11</v>
-      </c>
-      <c r="AB14" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:29">
       <c r="A15" t="s">
-        <v>3</v>
-      </c>
-      <c r="B15">
-        <v>6.5002999999999997E-3</v>
-      </c>
-      <c r="C15">
-        <v>2.5134E-2</v>
+        <v>25</v>
+      </c>
+      <c r="B15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" t="s">
+        <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>3</v>
-      </c>
-      <c r="G15">
-        <v>6.4492999999999998E-3</v>
-      </c>
-      <c r="H15">
-        <v>2.4036999999999999E-2</v>
+        <v>25</v>
+      </c>
+      <c r="G15" t="s">
+        <v>11</v>
+      </c>
+      <c r="H15" t="s">
+        <v>10</v>
       </c>
       <c r="K15" t="s">
-        <v>3</v>
-      </c>
-      <c r="L15">
-        <v>6.9426999999999996E-3</v>
-      </c>
-      <c r="M15">
-        <v>2.5134E-2</v>
+        <v>25</v>
+      </c>
+      <c r="L15" t="s">
+        <v>11</v>
+      </c>
+      <c r="M15" t="s">
+        <v>10</v>
       </c>
       <c r="P15" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q15">
-        <v>6.6588000000000003E-3</v>
-      </c>
-      <c r="R15">
-        <v>2.4473999999999999E-2</v>
+        <v>25</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>11</v>
+      </c>
+      <c r="R15" t="s">
+        <v>10</v>
       </c>
       <c r="U15" t="s">
-        <v>3</v>
-      </c>
-      <c r="V15">
-        <v>6.4111000000000003E-3</v>
-      </c>
-      <c r="W15">
-        <v>2.4461E-2</v>
+        <v>25</v>
+      </c>
+      <c r="V15" t="s">
+        <v>11</v>
+      </c>
+      <c r="W15" t="s">
+        <v>10</v>
       </c>
       <c r="Z15" t="s">
-        <v>3</v>
-      </c>
-      <c r="AA15">
-        <v>6.6043999999999999E-3</v>
-      </c>
-      <c r="AB15">
-        <v>2.4445000000000001E-2</v>
+        <v>25</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:29">
       <c r="A16" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B16">
-        <v>-1.482E-3</v>
+        <v>6.5002999999999997E-3</v>
       </c>
       <c r="C16">
-        <v>-1.2622E-2</v>
+        <v>2.5134E-2</v>
       </c>
       <c r="F16" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G16">
-        <v>-1.4778E-3</v>
+        <v>6.4492999999999998E-3</v>
       </c>
       <c r="H16">
-        <v>-1.2011000000000001E-2</v>
+        <v>2.4036999999999999E-2</v>
       </c>
       <c r="K16" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>-1.6436000000000001E-3</v>
+        <v>6.9426999999999996E-3</v>
       </c>
       <c r="M16">
-        <v>-1.2622E-2</v>
+        <v>2.5134E-2</v>
       </c>
       <c r="P16" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q16">
-        <v>-1.5150000000000001E-3</v>
+        <v>6.6588000000000003E-3</v>
       </c>
       <c r="R16">
-        <v>-1.2303E-2</v>
+        <v>2.4473999999999999E-2</v>
       </c>
       <c r="U16" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V16">
-        <v>-1.2712000000000001E-3</v>
+        <v>6.5256000000000003E-3</v>
       </c>
       <c r="W16">
-        <v>-1.2295E-2</v>
+        <v>2.4461E-2</v>
       </c>
       <c r="Z16" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AA16">
-        <v>-1.3366999999999999E-3</v>
+        <v>6.6043999999999999E-3</v>
       </c>
       <c r="AB16">
-        <v>-1.2352999999999999E-2</v>
+        <v>2.4445000000000001E-2</v>
       </c>
     </row>
     <row r="17" spans="1:28">
       <c r="A17" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B17">
-        <v>8.1946999999999992</v>
+        <v>-1.482E-3</v>
       </c>
       <c r="C17">
-        <v>136.03</v>
+        <v>-1.2622E-2</v>
       </c>
       <c r="F17" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G17">
-        <v>8.7093000000000007</v>
+        <v>-1.4778E-3</v>
       </c>
       <c r="H17">
-        <v>82.734999999999999</v>
+        <v>-1.2011000000000001E-2</v>
       </c>
       <c r="K17" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L17">
-        <v>10.385999999999999</v>
+        <v>-1.6436000000000001E-3</v>
       </c>
       <c r="M17">
-        <v>136.03</v>
+        <v>-1.2622E-2</v>
       </c>
       <c r="P17" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q17">
-        <v>10.583</v>
+        <v>-1.5150000000000001E-3</v>
       </c>
       <c r="R17">
-        <v>82.5</v>
+        <v>-1.2303E-2</v>
       </c>
       <c r="U17" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V17">
-        <v>9.6111000000000004</v>
+        <v>-1.4117000000000001E-3</v>
       </c>
       <c r="W17">
-        <v>148.87</v>
+        <v>-1.2295E-2</v>
       </c>
       <c r="Z17" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AA17">
-        <v>11.343999999999999</v>
+        <v>-1.3366999999999999E-3</v>
       </c>
       <c r="AB17">
-        <v>172.71</v>
+        <v>-1.2352999999999999E-2</v>
       </c>
     </row>
     <row r="18" spans="1:28">
       <c r="A18" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B18">
-        <v>-4.7384000000000003E-3</v>
+        <v>8.1946999999999992</v>
       </c>
       <c r="C18">
-        <v>-1.2203E-2</v>
+        <v>136.03</v>
       </c>
       <c r="F18" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G18">
-        <v>-4.7009E-3</v>
+        <v>8.7093000000000007</v>
       </c>
       <c r="H18">
-        <v>-1.1662E-2</v>
+        <v>82.734999999999999</v>
       </c>
       <c r="K18" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L18">
-        <v>-5.0479000000000001E-3</v>
+        <v>10.385999999999999</v>
       </c>
       <c r="M18">
-        <v>-1.2203E-2</v>
+        <v>136.03</v>
       </c>
       <c r="P18" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q18">
-        <v>-4.9135000000000003E-3</v>
+        <v>10.583</v>
       </c>
       <c r="R18">
-        <v>-1.1896E-2</v>
+        <v>82.5</v>
       </c>
       <c r="U18" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="V18">
-        <v>-4.9188000000000001E-3</v>
+        <v>10.606</v>
       </c>
       <c r="W18">
-        <v>-1.1892E-2</v>
+        <v>148.87</v>
       </c>
       <c r="Z18" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AA18">
-        <v>-5.0714000000000002E-3</v>
+        <v>11.343999999999999</v>
       </c>
       <c r="AB18">
-        <v>-1.1847999999999999E-2</v>
+        <v>172.71</v>
       </c>
     </row>
     <row r="19" spans="1:28">
       <c r="A19" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B19">
-        <v>72.11</v>
+        <v>-4.7384000000000003E-3</v>
       </c>
       <c r="C19">
-        <v>76.102999999999994</v>
+        <v>-1.2203E-2</v>
       </c>
       <c r="F19" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G19">
-        <v>73.929000000000002</v>
+        <v>-4.7009E-3</v>
       </c>
       <c r="H19">
-        <v>88.281999999999996</v>
+        <v>-1.1662E-2</v>
       </c>
       <c r="K19" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L19">
-        <v>97.405000000000001</v>
+        <v>-5.0479000000000001E-3</v>
       </c>
       <c r="M19">
-        <v>76.102999999999994</v>
+        <v>-1.2203E-2</v>
       </c>
       <c r="P19" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Q19">
-        <v>90.453000000000003</v>
+        <v>-4.9135000000000003E-3</v>
       </c>
       <c r="R19">
-        <v>138.86000000000001</v>
+        <v>-1.1896E-2</v>
       </c>
       <c r="U19" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="V19">
-        <v>80.768000000000001</v>
+        <v>-4.8897000000000003E-3</v>
       </c>
       <c r="W19">
-        <v>85.361999999999995</v>
+        <v>-1.1892E-2</v>
       </c>
       <c r="Z19" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AA19">
-        <v>96.24</v>
+        <v>-5.0714000000000002E-3</v>
       </c>
       <c r="AB19">
-        <v>97.78</v>
+        <v>-1.1847999999999999E-2</v>
       </c>
     </row>
     <row r="20" spans="1:28">
       <c r="A20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20">
+        <v>72.11</v>
+      </c>
+      <c r="C20">
+        <v>76.102999999999994</v>
+      </c>
+      <c r="F20" t="s">
+        <v>7</v>
+      </c>
+      <c r="G20">
+        <v>73.929000000000002</v>
+      </c>
+      <c r="H20">
+        <v>88.281999999999996</v>
+      </c>
+      <c r="K20" t="s">
+        <v>7</v>
+      </c>
+      <c r="L20">
+        <v>97.405000000000001</v>
+      </c>
+      <c r="M20">
+        <v>76.102999999999994</v>
+      </c>
+      <c r="P20" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q20">
+        <v>90.453000000000003</v>
+      </c>
+      <c r="R20">
+        <v>138.86000000000001</v>
+      </c>
+      <c r="U20" t="s">
+        <v>7</v>
+      </c>
+      <c r="V20">
+        <v>86.745000000000005</v>
+      </c>
+      <c r="W20">
+        <v>85.361999999999995</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA20">
+        <v>96.24</v>
+      </c>
+      <c r="AB20">
+        <v>97.78</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28">
+      <c r="A21" t="s">
         <v>8</v>
       </c>
-      <c r="B20">
+      <c r="B21">
         <v>0.95409999999999995</v>
       </c>
-      <c r="C20">
+      <c r="C21">
         <v>1.0175000000000001</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F21" t="s">
         <v>8</v>
       </c>
-      <c r="G20">
+      <c r="G21">
         <v>0.97119999999999995</v>
       </c>
-      <c r="H20">
+      <c r="H21">
         <v>1.0195000000000001</v>
       </c>
-      <c r="K20" t="s">
+      <c r="K21" t="s">
         <v>8</v>
       </c>
-      <c r="L20">
+      <c r="L21">
         <v>0.96640000000000004</v>
       </c>
-      <c r="M20">
+      <c r="M21">
         <v>1.0175000000000001</v>
       </c>
-      <c r="P20" t="s">
+      <c r="P21" t="s">
         <v>8</v>
       </c>
-      <c r="Q20">
+      <c r="Q21">
         <v>0.9708</v>
       </c>
-      <c r="R20">
+      <c r="R21">
         <v>1.0181</v>
       </c>
-      <c r="U20" t="s">
+      <c r="U21" t="s">
         <v>8</v>
       </c>
-      <c r="V20">
+      <c r="V21">
         <v>0.96960000000000002</v>
       </c>
-      <c r="W20">
+      <c r="W21">
         <v>1.0255000000000001</v>
       </c>
-      <c r="Z20" t="s">
+      <c r="Z21" t="s">
         <v>8</v>
       </c>
-      <c r="AA20">
+      <c r="AA21">
         <v>0.9768</v>
       </c>
-      <c r="AB20">
+      <c r="AB21">
         <v>1.0161</v>
       </c>
     </row>

--- a/ZTC_H2_and_He_example.xlsx
+++ b/ZTC_H2_and_He_example.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inukai\Desktop\lammps_education_gcmc_win-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FA47BED-AF28-43DA-BAC1-681BB12B5E14}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E773C414-B84B-4624-9DA6-233DAF7EFB6B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7060" yWindow="240" windowWidth="16100" windowHeight="11140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="380" yWindow="380" windowWidth="16100" windowHeight="11140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="H2" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="32">
   <si>
     <t>MPa</t>
   </si>
@@ -156,6 +156,18 @@
     <t>Since the number of hydrogen molecules is output by GCMC, a double coefficient is applied at the end of the equation to obtain the number of hydrogen. (水素分子の数をGCMCでは出力しているため、水素の数にするために式の最後に２倍の係数がかけられている)</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>wt.%</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>nH2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>from plot_gcmc.gpl</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -226,7 +238,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -235,6 +247,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -3266,7 +3279,7 @@
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>501650</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>28576</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -3302,7 +3315,7 @@
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>628650</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>34926</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -3596,10 +3609,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AI14"/>
+  <dimension ref="A1:AI18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H14" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q19" sqref="Q19"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -3719,7 +3732,7 @@
         <v>1.0780000000000001</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:C8" si="0">(B3/100)*($B$14)/(1-B3/100)</f>
+        <f>(B3/100)*($B$14)/(1-B3/100)</f>
         <v>307.57032813732036</v>
       </c>
       <c r="D3">
@@ -3727,7 +3740,7 @@
         <v>173.48685985081411</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E8" si="1">(C3-D3)/($B$14+C3-D3)*100</f>
+        <f t="shared" ref="E3:E8" si="0">(C3-D3)/($B$14+C3-D3)*100</f>
         <v>0.47282274359779941</v>
       </c>
       <c r="G3" s="4">
@@ -3737,7 +3750,7 @@
         <v>0.79290000000000005</v>
       </c>
       <c r="I3">
-        <f t="shared" ref="I3:I8" si="2">(H3/100)*($B$14)/(1-H3/100)</f>
+        <f t="shared" ref="I3:I8" si="1">(H3/100)*($B$14)/(1-H3/100)</f>
         <v>225.57669360358278</v>
       </c>
       <c r="J3">
@@ -3745,7 +3758,7 @@
         <v>177.68092425114668</v>
       </c>
       <c r="K3">
-        <f t="shared" ref="K3:K8" si="3">(I3-J3)/($B$14+I3-J3)*100</f>
+        <f t="shared" ref="K3:K8" si="2">(I3-J3)/($B$14+I3-J3)*100</f>
         <v>0.16941124055910153</v>
       </c>
       <c r="M3" s="4">
@@ -3755,7 +3768,7 @@
         <v>0.64910000000000001</v>
       </c>
       <c r="O3">
-        <f t="shared" ref="O3:O8" si="4">(N3/100)*($B$14)/(1-N3/100)</f>
+        <f t="shared" ref="O3:O8" si="3">(N3/100)*($B$14)/(1-N3/100)</f>
         <v>184.39891737266598</v>
       </c>
       <c r="P3">
@@ -3763,7 +3776,7 @@
         <v>146.85833903159499</v>
       </c>
       <c r="Q3">
-        <f t="shared" ref="Q3:Q8" si="5">(O3-P3)/($B$14+O3-P3)*100</f>
+        <f t="shared" ref="Q3:Q8" si="4">(O3-P3)/($B$14+O3-P3)*100</f>
         <v>0.13283273867186537</v>
       </c>
       <c r="S3" s="4">
@@ -3773,7 +3786,7 @@
         <v>0.53810000000000002</v>
       </c>
       <c r="U3">
-        <f t="shared" ref="U3:U8" si="6">(T3/100)*($B$14)/(1-T3/100)</f>
+        <f t="shared" ref="U3:U8" si="5">(T3/100)*($B$14)/(1-T3/100)</f>
         <v>152.69499577225048</v>
       </c>
       <c r="V3">
@@ -3781,7 +3794,7 @@
         <v>107.71032427902193</v>
       </c>
       <c r="W3">
-        <f t="shared" ref="W3:W8" si="7">(U3-V3)/($B$14+U3-V3)*100</f>
+        <f t="shared" ref="W3:W8" si="6">(U3-V3)/($B$14+U3-V3)*100</f>
         <v>0.15913083549332993</v>
       </c>
       <c r="Y3" s="4">
@@ -3791,7 +3804,7 @@
         <v>0.50109999999999999</v>
       </c>
       <c r="AA3">
-        <f t="shared" ref="AA3:AA8" si="8">(Z3/100)*($B$14)/(1-Z3/100)</f>
+        <f t="shared" ref="AA3:AA8" si="7">(Z3/100)*($B$14)/(1-Z3/100)</f>
         <v>142.14274127653673</v>
       </c>
       <c r="AB3">
@@ -3799,7 +3812,7 @@
         <v>115.67178118463731</v>
       </c>
       <c r="AC3">
-        <f t="shared" ref="AC3:AC8" si="9">(AA3-AB3)/($B$14+AA3-AB3)*100</f>
+        <f t="shared" ref="AC3:AC8" si="8">(AA3-AB3)/($B$14+AA3-AB3)*100</f>
         <v>9.3700951496680118E-2</v>
       </c>
       <c r="AE3" s="4">
@@ -3809,7 +3822,7 @@
         <v>0.34670000000000001</v>
       </c>
       <c r="AG3">
-        <f t="shared" ref="AG3:AG8" si="10">(AF3/100)*($B$14)/(1-AF3/100)</f>
+        <f t="shared" ref="AG3:AG8" si="9">(AF3/100)*($B$14)/(1-AF3/100)</f>
         <v>98.193043281055424</v>
       </c>
       <c r="AH3">
@@ -3817,7 +3830,7 @@
         <v>78.750528813496032</v>
       </c>
       <c r="AI3">
-        <f t="shared" ref="AI3:AI8" si="11">(AG3-AH3)/($B$14+AG3-AH3)*100</f>
+        <f t="shared" ref="AI3:AI8" si="10">(AG3-AH3)/($B$14+AG3-AH3)*100</f>
         <v>6.8839039212730754E-2</v>
       </c>
     </row>
@@ -3829,7 +3842,7 @@
         <v>1.5963000000000001</v>
       </c>
       <c r="C4">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="C4:C8" si="11">(B4/100)*($B$14)/(1-B4/100)</f>
         <v>457.84834513336392</v>
       </c>
       <c r="D4">
@@ -3837,7 +3850,7 @@
         <v>236.6114439031154</v>
       </c>
       <c r="E4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.77776431252249512</v>
       </c>
       <c r="G4" s="4">
@@ -3847,7 +3860,7 @@
         <v>1.5150999999999999</v>
       </c>
       <c r="I4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>434.20039417210154</v>
       </c>
       <c r="J4">
@@ -3855,7 +3868,7 @@
         <v>249.74752745577493</v>
       </c>
       <c r="K4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.64928867327524808</v>
       </c>
       <c r="M4" s="4">
@@ -3865,7 +3878,7 @@
         <v>1.1667000000000001</v>
       </c>
       <c r="O4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>333.17657914893056</v>
       </c>
       <c r="P4">
@@ -3873,7 +3886,7 @@
         <v>205.00525242971679</v>
       </c>
       <c r="Q4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.45206882126316911</v>
       </c>
       <c r="S4" s="4">
@@ -3883,7 +3896,7 @@
         <v>1.0073000000000001</v>
       </c>
       <c r="U4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>287.19324960325361</v>
       </c>
       <c r="V4">
@@ -3891,7 +3904,7 @@
         <v>183.01834792818511</v>
       </c>
       <c r="W4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0.36774307570696535</v>
       </c>
       <c r="Y4" s="4">
@@ -3901,7 +3914,7 @@
         <v>0.83709999999999996</v>
       </c>
       <c r="AA4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>238.2575580181701</v>
       </c>
       <c r="AB4">
@@ -3909,7 +3922,7 @@
         <v>153.91734140180196</v>
       </c>
       <c r="AC4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0.29793416346911888</v>
       </c>
       <c r="AE4" s="4">
@@ -3919,7 +3932,7 @@
         <v>0.69179999999999997</v>
       </c>
       <c r="AG4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>196.61380631206686</v>
       </c>
       <c r="AH4">
@@ -3927,7 +3940,7 @@
         <v>126.64688808446761</v>
       </c>
       <c r="AI4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0.24728564371977479</v>
       </c>
     </row>
@@ -3939,7 +3952,7 @@
         <v>3.323</v>
       </c>
       <c r="C5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="11"/>
         <v>970.12062848454138</v>
       </c>
       <c r="D5">
@@ -3947,7 +3960,7 @@
         <v>376.34161517421109</v>
       </c>
       <c r="E5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2.0604607073851047</v>
       </c>
       <c r="G5" s="4">
@@ -3957,7 +3970,7 @@
         <v>3.0371999999999999</v>
       </c>
       <c r="I5" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>884.07031150090552</v>
       </c>
       <c r="J5">
@@ -3965,7 +3978,7 @@
         <v>428.70788398600206</v>
       </c>
       <c r="K5" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.587770399937587</v>
       </c>
       <c r="M5" s="4">
@@ -3975,7 +3988,7 @@
         <v>2.5011000000000001</v>
       </c>
       <c r="O5" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>724.01890072605954</v>
       </c>
       <c r="P5">
@@ -3983,7 +3996,7 @@
         <v>369.19636264827909</v>
       </c>
       <c r="Q5" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1.2415575820348193</v>
       </c>
       <c r="S5" s="4">
@@ -3993,7 +4006,7 @@
         <v>2.0964</v>
       </c>
       <c r="U5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>604.35769062628958</v>
       </c>
       <c r="V5">
@@ -4001,7 +4014,7 @@
         <v>331.10209661879009</v>
       </c>
       <c r="W5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0.9588838935948647</v>
       </c>
       <c r="Y5" s="4">
@@ -4011,7 +4024,7 @@
         <v>1.9165000000000001</v>
       </c>
       <c r="AA5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>551.48211472877699</v>
       </c>
       <c r="AB5">
@@ -4019,7 +4032,7 @@
         <v>318.25507056741679</v>
       </c>
       <c r="AC5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0.81957052174980627</v>
       </c>
       <c r="AE5" s="4">
@@ -4029,7 +4042,7 @@
         <v>1.502</v>
       </c>
       <c r="AG5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>430.38892160246911</v>
       </c>
       <c r="AH5">
@@ -4037,7 +4050,7 @@
         <v>238.1002837340923</v>
       </c>
       <c r="AI5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0.67668456046060621</v>
       </c>
     </row>
@@ -4049,7 +4062,7 @@
         <v>4.4021999999999997</v>
       </c>
       <c r="C6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="11"/>
         <v>1299.6919678067907</v>
       </c>
       <c r="D6">
@@ -4057,7 +4070,7 @@
         <v>556.85294587741328</v>
       </c>
       <c r="E6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2.5644462668743744</v>
       </c>
       <c r="G6" s="4">
@@ -4067,7 +4080,7 @@
         <v>3.9975999999999998</v>
       </c>
       <c r="I6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1175.2650183745407</v>
       </c>
       <c r="J6">
@@ -4075,7 +4088,7 @@
         <v>626.79997516693322</v>
       </c>
       <c r="K6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.9062149954269736</v>
       </c>
       <c r="M6" s="4">
@@ -4085,7 +4098,7 @@
         <v>3.5954999999999999</v>
       </c>
       <c r="O6" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1052.6416505453583</v>
       </c>
       <c r="P6">
@@ -4093,7 +4106,7 @@
         <v>553.90943792861162</v>
       </c>
       <c r="Q6" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1.736367588309282</v>
       </c>
       <c r="S6" s="4">
@@ -4103,7 +4116,7 @@
         <v>3.2578999999999998</v>
       </c>
       <c r="U6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>950.47522846826769</v>
       </c>
       <c r="V6">
@@ -4111,7 +4124,7 @@
         <v>521.14836300364971</v>
       </c>
       <c r="W6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1.4983491008929877</v>
       </c>
       <c r="Y6" s="4">
@@ -4121,7 +4134,7 @@
         <v>2.9436</v>
       </c>
       <c r="AA6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>855.9988460317918</v>
       </c>
       <c r="AB6">
@@ -4129,7 +4142,7 @@
         <v>453.47361398414864</v>
       </c>
       <c r="AC6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>1.4061267610538097</v>
       </c>
       <c r="AE6" s="4">
@@ -4139,7 +4152,7 @@
         <v>2.4470999999999998</v>
       </c>
       <c r="AG6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>707.99484587336713</v>
       </c>
       <c r="AH6">
@@ -4147,7 +4160,7 @@
         <v>393.58519373151933</v>
       </c>
       <c r="AI6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>1.1017069835853692</v>
       </c>
     </row>
@@ -4155,7 +4168,7 @@
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="D7">
@@ -4163,13 +4176,13 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
       <c r="I7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J7">
@@ -4177,13 +4190,13 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M7" s="4"/>
       <c r="N7" s="4"/>
       <c r="O7" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P7">
@@ -4191,13 +4204,13 @@
         <v>0</v>
       </c>
       <c r="Q7" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="4"/>
       <c r="U7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="V7">
@@ -4205,13 +4218,13 @@
         <v>0</v>
       </c>
       <c r="W7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Y7" s="4"/>
       <c r="Z7" s="4"/>
       <c r="AA7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AB7">
@@ -4219,13 +4232,13 @@
         <v>0</v>
       </c>
       <c r="AC7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AE7" s="4"/>
       <c r="AF7" s="4"/>
       <c r="AG7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AH7">
@@ -4233,7 +4246,7 @@
         <v>0</v>
       </c>
       <c r="AI7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -4241,7 +4254,7 @@
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="D8">
@@ -4249,13 +4262,13 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
       <c r="I8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J8">
@@ -4263,13 +4276,13 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M8" s="4"/>
       <c r="N8" s="4"/>
       <c r="O8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P8">
@@ -4277,13 +4290,13 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S8" s="4"/>
       <c r="T8" s="4"/>
       <c r="U8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="V8">
@@ -4291,13 +4304,13 @@
         <v>0</v>
       </c>
       <c r="W8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Y8" s="4"/>
       <c r="Z8" s="4"/>
       <c r="AA8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AB8">
@@ -4305,13 +4318,13 @@
         <v>0</v>
       </c>
       <c r="AC8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AE8" s="4"/>
       <c r="AF8" s="4"/>
       <c r="AG8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AH8">
@@ -4319,7 +4332,7 @@
         <v>0</v>
       </c>
       <c r="AI8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -4429,6 +4442,29 @@
       <c r="B14" s="4">
         <f xml:space="preserve"> 2304*12+576</f>
         <v>28224</v>
+      </c>
+    </row>
+    <row r="16" spans="1:35">
+      <c r="A16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="6">
+        <f>307.6703/2</f>
+        <v>153.83515</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18">
+        <f>B17*2/(B14+B17*2)*100</f>
+        <v>1.078346611905157</v>
       </c>
     </row>
   </sheetData>

--- a/ZTC_H2_and_He_example.xlsx
+++ b/ZTC_H2_and_He_example.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inukai\Desktop\lammps_education_gcmc_win-master\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manab\lammps_education_gcmc_win\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E773C414-B84B-4624-9DA6-233DAF7EFB6B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FFDAE81-05D2-47E1-BE8A-64EC3547041A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="380" windowWidth="16100" windowHeight="11140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="16440" windowHeight="28320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="H2" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="33">
   <si>
     <t>MPa</t>
   </si>
@@ -168,6 +168,10 @@
     <t>from plot_gcmc.gpl</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>423.15K (150 degree of Celsius)</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -238,13 +242,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -895,6 +897,108 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-6C4D-459D-B772-ADDFA9F63302}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'H2'!$AK$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>423.15K (150 degree of Celsius)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'H2'!$AK$3:$AK$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15.2058</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>29.7181</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'H2'!$AO$3:$AO$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.51307614391956824</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.89331047952924925</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F63B-46E6-AC26-5DF8B43BF4C6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1822,6 +1926,93 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-6D66-4C21-89B0-6E36710B0211}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'H2'!$AK$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>423.15K (150 degree of Celsius)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'H2'!$AK$3:$AK$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15.2058</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>29.7181</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'H2'!$AL$3:$AL$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="2">
+                  <c:v>1.2128000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.9943</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-964F-4516-B4CD-9D2A9A964D83}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3609,18 +3800,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AI18"/>
+  <dimension ref="A1:AO18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H57" sqref="H57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="5" max="5" width="12.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35">
+    <row r="1" spans="1:41">
       <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
@@ -3643,8 +3834,11 @@
       <c r="AE1" t="s">
         <v>16</v>
       </c>
+      <c r="AK1" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="2" spans="1:35">
+    <row r="2" spans="1:41">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -3723,12 +3917,25 @@
       <c r="AI2" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="AK2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AM2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN2" s="1"/>
+      <c r="AO2" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="3" spans="1:35">
-      <c r="A3" s="4">
+    <row r="3" spans="1:41">
+      <c r="A3" s="2">
         <v>2.5221</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="2">
         <v>1.0780000000000001</v>
       </c>
       <c r="C3">
@@ -3743,10 +3950,10 @@
         <f t="shared" ref="E3:E8" si="0">(C3-D3)/($B$14+C3-D3)*100</f>
         <v>0.47282274359779941</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="2">
         <v>2.5026999999999999</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="2">
         <v>0.79290000000000005</v>
       </c>
       <c r="I3">
@@ -3761,10 +3968,10 @@
         <f t="shared" ref="K3:K8" si="2">(I3-J3)/($B$14+I3-J3)*100</f>
         <v>0.16941124055910153</v>
       </c>
-      <c r="M3" s="4">
+      <c r="M3" s="2">
         <v>2.4899</v>
       </c>
-      <c r="N3" s="4">
+      <c r="N3" s="2">
         <v>0.64910000000000001</v>
       </c>
       <c r="O3">
@@ -3779,10 +3986,10 @@
         <f t="shared" ref="Q3:Q8" si="4">(O3-P3)/($B$14+O3-P3)*100</f>
         <v>0.13283273867186537</v>
       </c>
-      <c r="S3" s="4">
+      <c r="S3" s="2">
         <v>2.5051999999999999</v>
       </c>
-      <c r="T3" s="4">
+      <c r="T3" s="2">
         <v>0.53810000000000002</v>
       </c>
       <c r="U3">
@@ -3797,10 +4004,10 @@
         <f t="shared" ref="W3:W8" si="6">(U3-V3)/($B$14+U3-V3)*100</f>
         <v>0.15913083549332993</v>
       </c>
-      <c r="Y3" s="4">
+      <c r="Y3" s="2">
         <v>2.5363000000000002</v>
       </c>
-      <c r="Z3" s="4">
+      <c r="Z3" s="2">
         <v>0.50109999999999999</v>
       </c>
       <c r="AA3">
@@ -3815,10 +4022,10 @@
         <f t="shared" ref="AC3:AC8" si="8">(AA3-AB3)/($B$14+AA3-AB3)*100</f>
         <v>9.3700951496680118E-2</v>
       </c>
-      <c r="AE3" s="4">
+      <c r="AE3" s="2">
         <v>2.5287000000000002</v>
       </c>
-      <c r="AF3" s="4">
+      <c r="AF3" s="2">
         <v>0.34670000000000001</v>
       </c>
       <c r="AG3">
@@ -3833,16 +4040,32 @@
         <f t="shared" ref="AI3:AI8" si="10">(AG3-AH3)/($B$14+AG3-AH3)*100</f>
         <v>6.8839039212730754E-2</v>
       </c>
+      <c r="AK3" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="AL3" s="2"/>
+      <c r="AM3">
+        <f t="shared" ref="AM3:AM9" si="11">(AL3/100)*($B$14)/(1-AL3/100)</f>
+        <v>0</v>
+      </c>
+      <c r="AN3">
+        <f>He!$AH3</f>
+        <v>0</v>
+      </c>
+      <c r="AO3">
+        <f t="shared" ref="AO3:AO9" si="12">(AM3-AN3)/($B$14+AM3-AN3)*100</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:35">
-      <c r="A4" s="4">
+    <row r="4" spans="1:41">
+      <c r="A4" s="2">
         <v>5.0218999999999996</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="2">
         <v>1.5963000000000001</v>
       </c>
       <c r="C4">
-        <f t="shared" ref="C4:C8" si="11">(B4/100)*($B$14)/(1-B4/100)</f>
+        <f t="shared" ref="C4:C8" si="13">(B4/100)*($B$14)/(1-B4/100)</f>
         <v>457.84834513336392</v>
       </c>
       <c r="D4">
@@ -3853,10 +4076,10 @@
         <f t="shared" si="0"/>
         <v>0.77776431252249512</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="2">
         <v>4.9962</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="2">
         <v>1.5150999999999999</v>
       </c>
       <c r="I4">
@@ -3871,10 +4094,10 @@
         <f t="shared" si="2"/>
         <v>0.64928867327524808</v>
       </c>
-      <c r="M4" s="4">
+      <c r="M4" s="2">
         <v>4.9969000000000001</v>
       </c>
-      <c r="N4" s="4">
+      <c r="N4" s="2">
         <v>1.1667000000000001</v>
       </c>
       <c r="O4">
@@ -3889,10 +4112,10 @@
         <f t="shared" si="4"/>
         <v>0.45206882126316911</v>
       </c>
-      <c r="S4" s="4">
+      <c r="S4" s="2">
         <v>4.9835000000000003</v>
       </c>
-      <c r="T4" s="4">
+      <c r="T4" s="2">
         <v>1.0073000000000001</v>
       </c>
       <c r="U4">
@@ -3907,10 +4130,10 @@
         <f t="shared" si="6"/>
         <v>0.36774307570696535</v>
       </c>
-      <c r="Y4" s="4">
+      <c r="Y4" s="2">
         <v>4.9787999999999997</v>
       </c>
-      <c r="Z4" s="4">
+      <c r="Z4" s="2">
         <v>0.83709999999999996</v>
       </c>
       <c r="AA4">
@@ -3925,10 +4148,10 @@
         <f t="shared" si="8"/>
         <v>0.29793416346911888</v>
       </c>
-      <c r="AE4" s="4">
+      <c r="AE4" s="2">
         <v>5.0038</v>
       </c>
-      <c r="AF4" s="4">
+      <c r="AF4" s="2">
         <v>0.69179999999999997</v>
       </c>
       <c r="AG4">
@@ -3943,16 +4166,32 @@
         <f t="shared" si="10"/>
         <v>0.24728564371977479</v>
       </c>
+      <c r="AK4" s="2">
+        <v>5</v>
+      </c>
+      <c r="AL4" s="2"/>
+      <c r="AM4">
+        <f>(AL4/100)*($B$14)/(1-AL4/100)</f>
+        <v>0</v>
+      </c>
+      <c r="AN4">
+        <f>He!$AH4</f>
+        <v>0</v>
+      </c>
+      <c r="AO4">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:35">
-      <c r="A5" s="4">
+    <row r="5" spans="1:41">
+      <c r="A5" s="2">
         <v>15.0274</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="2">
         <v>3.323</v>
       </c>
       <c r="C5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>970.12062848454138</v>
       </c>
       <c r="D5">
@@ -3963,13 +4202,13 @@
         <f t="shared" si="0"/>
         <v>2.0604607073851047</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="2">
         <v>14.9991</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="2">
         <v>3.0371999999999999</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5">
         <f t="shared" si="1"/>
         <v>884.07031150090552</v>
       </c>
@@ -3977,17 +4216,17 @@
         <f>He!$I5</f>
         <v>428.70788398600206</v>
       </c>
-      <c r="K5" s="2">
+      <c r="K5">
         <f t="shared" si="2"/>
         <v>1.587770399937587</v>
       </c>
-      <c r="M5" s="4">
+      <c r="M5" s="2">
         <v>15.0161</v>
       </c>
-      <c r="N5" s="4">
+      <c r="N5" s="2">
         <v>2.5011000000000001</v>
       </c>
-      <c r="O5" s="2">
+      <c r="O5">
         <f t="shared" si="3"/>
         <v>724.01890072605954</v>
       </c>
@@ -3995,14 +4234,14 @@
         <f>He!$N5</f>
         <v>369.19636264827909</v>
       </c>
-      <c r="Q5" s="2">
+      <c r="Q5">
         <f t="shared" si="4"/>
         <v>1.2415575820348193</v>
       </c>
-      <c r="S5" s="4">
+      <c r="S5" s="2">
         <v>15.0192</v>
       </c>
-      <c r="T5" s="4">
+      <c r="T5" s="2">
         <v>2.0964</v>
       </c>
       <c r="U5">
@@ -4017,10 +4256,10 @@
         <f t="shared" si="6"/>
         <v>0.9588838935948647</v>
       </c>
-      <c r="Y5" s="4">
+      <c r="Y5" s="2">
         <v>14.9886</v>
       </c>
-      <c r="Z5" s="4">
+      <c r="Z5" s="2">
         <v>1.9165000000000001</v>
       </c>
       <c r="AA5">
@@ -4035,10 +4274,10 @@
         <f t="shared" si="8"/>
         <v>0.81957052174980627</v>
       </c>
-      <c r="AE5" s="4">
+      <c r="AE5" s="2">
         <v>15.0101</v>
       </c>
-      <c r="AF5" s="4">
+      <c r="AF5" s="2">
         <v>1.502</v>
       </c>
       <c r="AG5">
@@ -4053,16 +4292,34 @@
         <f t="shared" si="10"/>
         <v>0.67668456046060621</v>
       </c>
+      <c r="AK5" s="2">
+        <v>15.2058</v>
+      </c>
+      <c r="AL5" s="2">
+        <v>1.2128000000000001</v>
+      </c>
+      <c r="AM5">
+        <f>(AL5/100)*($B$14)/(1-AL5/100)</f>
+        <v>346.50306112532803</v>
+      </c>
+      <c r="AN5">
+        <f>He!$AH5</f>
+        <v>200.94562980968641</v>
+      </c>
+      <c r="AO5">
+        <f t="shared" si="12"/>
+        <v>0.51307614391956824</v>
+      </c>
     </row>
-    <row r="6" spans="1:35">
-      <c r="A6" s="4">
+    <row r="6" spans="1:41">
+      <c r="A6" s="2">
         <v>30.001799999999999</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="2">
         <v>4.4021999999999997</v>
       </c>
       <c r="C6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1299.6919678067907</v>
       </c>
       <c r="D6">
@@ -4073,10 +4330,10 @@
         <f t="shared" si="0"/>
         <v>2.5644462668743744</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="2">
         <v>29.989899999999999</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="2">
         <v>3.9975999999999998</v>
       </c>
       <c r="I6">
@@ -4091,13 +4348,13 @@
         <f t="shared" si="2"/>
         <v>1.9062149954269736</v>
       </c>
-      <c r="M6" s="4">
+      <c r="M6" s="2">
         <v>30.001000000000001</v>
       </c>
-      <c r="N6" s="4">
+      <c r="N6" s="2">
         <v>3.5954999999999999</v>
       </c>
-      <c r="O6" s="2">
+      <c r="O6">
         <f t="shared" si="3"/>
         <v>1052.6416505453583</v>
       </c>
@@ -4105,14 +4362,14 @@
         <f>He!$N6</f>
         <v>553.90943792861162</v>
       </c>
-      <c r="Q6" s="2">
+      <c r="Q6">
         <f t="shared" si="4"/>
         <v>1.736367588309282</v>
       </c>
-      <c r="S6" s="4">
+      <c r="S6" s="2">
         <v>30.002600000000001</v>
       </c>
-      <c r="T6" s="4">
+      <c r="T6" s="2">
         <v>3.2578999999999998</v>
       </c>
       <c r="U6">
@@ -4127,10 +4384,10 @@
         <f t="shared" si="6"/>
         <v>1.4983491008929877</v>
       </c>
-      <c r="Y6" s="4">
+      <c r="Y6" s="2">
         <v>29.979199999999999</v>
       </c>
-      <c r="Z6" s="4">
+      <c r="Z6" s="2">
         <v>2.9436</v>
       </c>
       <c r="AA6">
@@ -4145,10 +4402,10 @@
         <f t="shared" si="8"/>
         <v>1.4061267610538097</v>
       </c>
-      <c r="AE6" s="4">
+      <c r="AE6" s="2">
         <v>29.965599999999998</v>
       </c>
-      <c r="AF6" s="4">
+      <c r="AF6" s="2">
         <v>2.4470999999999998</v>
       </c>
       <c r="AG6">
@@ -4163,12 +4420,30 @@
         <f t="shared" si="10"/>
         <v>1.1017069835853692</v>
       </c>
+      <c r="AK6" s="2">
+        <v>29.7181</v>
+      </c>
+      <c r="AL6" s="2">
+        <v>1.9943</v>
+      </c>
+      <c r="AM6">
+        <f t="shared" si="11"/>
+        <v>574.32499538292154</v>
+      </c>
+      <c r="AN6">
+        <f>He!$AH6</f>
+        <v>319.9244589890007</v>
+      </c>
+      <c r="AO6">
+        <f t="shared" si="12"/>
+        <v>0.89331047952924925</v>
+      </c>
     </row>
-    <row r="7" spans="1:35">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
+    <row r="7" spans="1:41">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
       <c r="C7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="D7">
@@ -4179,8 +4454,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
       <c r="I7">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -4193,9 +4468,9 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="2">
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -4203,12 +4478,12 @@
         <f>He!$N7</f>
         <v>0</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="Q7">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="S7" s="4"/>
-      <c r="T7" s="4"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
       <c r="U7">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -4221,8 +4496,8 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Y7" s="4"/>
-      <c r="Z7" s="4"/>
+      <c r="Y7" s="2"/>
+      <c r="Z7" s="2"/>
       <c r="AA7">
         <f t="shared" si="7"/>
         <v>0</v>
@@ -4235,8 +4510,8 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AE7" s="4"/>
-      <c r="AF7" s="4"/>
+      <c r="AE7" s="2"/>
+      <c r="AF7" s="2"/>
       <c r="AG7">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -4249,12 +4524,26 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
+      <c r="AK7" s="2"/>
+      <c r="AL7" s="2"/>
+      <c r="AM7">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AN7">
+        <f>He!$AH7</f>
+        <v>0</v>
+      </c>
+      <c r="AO7">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:35">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
+    <row r="8" spans="1:41">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
       <c r="C8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="D8">
@@ -4265,8 +4554,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
       <c r="I8">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -4279,8 +4568,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
       <c r="O8">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -4293,8 +4582,8 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="S8" s="4"/>
-      <c r="T8" s="4"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
       <c r="U8">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -4307,8 +4596,8 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Y8" s="4"/>
-      <c r="Z8" s="4"/>
+      <c r="Y8" s="2"/>
+      <c r="Z8" s="2"/>
       <c r="AA8">
         <f t="shared" si="7"/>
         <v>0</v>
@@ -4321,8 +4610,8 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AE8" s="4"/>
-      <c r="AF8" s="4"/>
+      <c r="AE8" s="2"/>
+      <c r="AF8" s="2"/>
       <c r="AG8">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -4335,12 +4624,26 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
+      <c r="AK8" s="2"/>
+      <c r="AL8" s="2"/>
+      <c r="AM8">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AN8">
+        <f>He!$AH8</f>
+        <v>0</v>
+      </c>
+      <c r="AO8">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:35">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
+    <row r="9" spans="1:41">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
       <c r="C9">
-        <f t="shared" ref="C9" si="12">(B9/100)*($B$14)/(1-B9/100)</f>
+        <f t="shared" ref="C9" si="14">(B9/100)*($B$14)/(1-B9/100)</f>
         <v>0</v>
       </c>
       <c r="D9">
@@ -4348,13 +4651,13 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <f t="shared" ref="E9" si="13">(C9-D9)/($B$14+C9-D9)*100</f>
-        <v>0</v>
-      </c>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
+        <f t="shared" ref="E9" si="15">(C9-D9)/($B$14+C9-D9)*100</f>
+        <v>0</v>
+      </c>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
       <c r="I9">
-        <f t="shared" ref="I9" si="14">(H9/100)*($B$14)/(1-H9/100)</f>
+        <f t="shared" ref="I9" si="16">(H9/100)*($B$14)/(1-H9/100)</f>
         <v>0</v>
       </c>
       <c r="J9">
@@ -4362,13 +4665,13 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <f t="shared" ref="K9" si="15">(I9-J9)/($B$14+I9-J9)*100</f>
-        <v>0</v>
-      </c>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
+        <f t="shared" ref="K9" si="17">(I9-J9)/($B$14+I9-J9)*100</f>
+        <v>0</v>
+      </c>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
       <c r="O9">
-        <f t="shared" ref="O9" si="16">(N9/100)*($B$14)/(1-N9/100)</f>
+        <f t="shared" ref="O9" si="18">(N9/100)*($B$14)/(1-N9/100)</f>
         <v>0</v>
       </c>
       <c r="P9">
@@ -4376,13 +4679,13 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <f t="shared" ref="Q9" si="17">(O9-P9)/($B$14+O9-P9)*100</f>
-        <v>0</v>
-      </c>
-      <c r="S9" s="4"/>
-      <c r="T9" s="4"/>
+        <f t="shared" ref="Q9" si="19">(O9-P9)/($B$14+O9-P9)*100</f>
+        <v>0</v>
+      </c>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2"/>
       <c r="U9">
-        <f t="shared" ref="U9" si="18">(T9/100)*($B$14)/(1-T9/100)</f>
+        <f t="shared" ref="U9" si="20">(T9/100)*($B$14)/(1-T9/100)</f>
         <v>0</v>
       </c>
       <c r="V9">
@@ -4390,13 +4693,13 @@
         <v>0</v>
       </c>
       <c r="W9">
-        <f t="shared" ref="W9" si="19">(U9-V9)/($B$14+U9-V9)*100</f>
-        <v>0</v>
-      </c>
-      <c r="Y9" s="4"/>
-      <c r="Z9" s="4"/>
+        <f t="shared" ref="W9" si="21">(U9-V9)/($B$14+U9-V9)*100</f>
+        <v>0</v>
+      </c>
+      <c r="Y9" s="2"/>
+      <c r="Z9" s="2"/>
       <c r="AA9">
-        <f t="shared" ref="AA9" si="20">(Z9/100)*($B$14)/(1-Z9/100)</f>
+        <f t="shared" ref="AA9" si="22">(Z9/100)*($B$14)/(1-Z9/100)</f>
         <v>0</v>
       </c>
       <c r="AB9">
@@ -4404,13 +4707,13 @@
         <v>0</v>
       </c>
       <c r="AC9">
-        <f t="shared" ref="AC9" si="21">(AA9-AB9)/($B$14+AA9-AB9)*100</f>
-        <v>0</v>
-      </c>
-      <c r="AE9" s="4"/>
-      <c r="AF9" s="4"/>
+        <f t="shared" ref="AC9" si="23">(AA9-AB9)/($B$14+AA9-AB9)*100</f>
+        <v>0</v>
+      </c>
+      <c r="AE9" s="2"/>
+      <c r="AF9" s="2"/>
       <c r="AG9">
-        <f t="shared" ref="AG9" si="22">(AF9/100)*($B$14)/(1-AF9/100)</f>
+        <f t="shared" ref="AG9" si="24">(AF9/100)*($B$14)/(1-AF9/100)</f>
         <v>0</v>
       </c>
       <c r="AH9">
@@ -4418,16 +4721,30 @@
         <v>0</v>
       </c>
       <c r="AI9">
-        <f t="shared" ref="AI9" si="23">(AG9-AH9)/($B$14+AG9-AH9)*100</f>
+        <f t="shared" ref="AI9" si="25">(AG9-AH9)/($B$14+AG9-AH9)*100</f>
+        <v>0</v>
+      </c>
+      <c r="AK9" s="2"/>
+      <c r="AL9" s="2"/>
+      <c r="AM9">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AN9">
+        <f>He!$AH9</f>
+        <v>0</v>
+      </c>
+      <c r="AO9">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35">
+    <row r="11" spans="1:41">
       <c r="A11" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:35">
+    <row r="13" spans="1:41">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -4435,16 +4752,16 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:35">
+    <row r="14" spans="1:41">
       <c r="A14" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14" s="2">
         <f xml:space="preserve"> 2304*12+576</f>
         <v>28224</v>
       </c>
     </row>
-    <row r="16" spans="1:35">
+    <row r="16" spans="1:41">
       <c r="A16" t="s">
         <v>31</v>
       </c>
@@ -4453,7 +4770,7 @@
       <c r="A17" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B17" s="4">
         <f>307.6703/2</f>
         <v>153.83515</v>
       </c>
@@ -4477,15 +4794,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9323AA30-3DDC-4545-83D0-069D8AFD5649}">
-  <dimension ref="A1:AC21"/>
+  <dimension ref="A1:AH21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView topLeftCell="U2" workbookViewId="0">
+      <selection activeCell="V64" sqref="V63:V64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
-    <row r="1" spans="1:29">
+    <row r="1" spans="1:34">
       <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
@@ -4518,8 +4835,12 @@
         <v>16</v>
       </c>
       <c r="AA1" s="1"/>
+      <c r="AE1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AF1" s="1"/>
     </row>
-    <row r="2" spans="1:29">
+    <row r="2" spans="1:34">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -4592,12 +4913,24 @@
       <c r="AC2" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="AE2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AH2" s="1" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:29">
-      <c r="A3" s="4">
+    <row r="3" spans="1:34">
+      <c r="A3" s="2">
         <v>2.5345</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="2">
         <v>80.801000000000002</v>
       </c>
       <c r="C3">
@@ -4608,10 +4941,10 @@
         <f>C3*($C$16 + $C$17*EXP(-(A3-$C$21)/$C$18)+$C$19*EXP(-(A3-$C$21)/$C$20))*2</f>
         <v>173.48685985081411</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="2">
         <v>2.4834000000000001</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="2">
         <v>69.702200000000005</v>
       </c>
       <c r="H3">
@@ -4622,10 +4955,10 @@
         <f>H3*($H$16 + $H$17*EXP(-(F3-$H$21)/$H$18)+$H$19*EXP(-(F3-$H$21)/$H$20))*2</f>
         <v>177.68092425114668</v>
       </c>
-      <c r="K3" s="4">
+      <c r="K3" s="2">
         <v>2.5171000000000001</v>
       </c>
-      <c r="L3" s="4">
+      <c r="L3" s="2">
         <v>59.867800000000003</v>
       </c>
       <c r="M3">
@@ -4636,10 +4969,10 @@
         <f>M3*($M$16 + $M$17*EXP(-(K3-$M$21)/$M$18)+$M$19*EXP(-(K3-$M$21)/$M$20))*2</f>
         <v>146.85833903159499</v>
       </c>
-      <c r="P3" s="4">
+      <c r="P3" s="2">
         <v>2.5234999999999999</v>
       </c>
-      <c r="Q3" s="4">
+      <c r="Q3" s="2">
         <v>44.8123</v>
       </c>
       <c r="R3">
@@ -4650,10 +4983,10 @@
         <f>R3*($R$16 + $R$17*EXP(-(P3-$R$21)/$R$18)+$R$19*EXP(-(P3-$R$21)/$R$20))*2</f>
         <v>107.71032427902193</v>
       </c>
-      <c r="U3" s="4">
+      <c r="U3" s="2">
         <v>2.5634999999999999</v>
       </c>
-      <c r="V3" s="4">
+      <c r="V3" s="2">
         <v>48.160200000000003</v>
       </c>
       <c r="W3">
@@ -4664,10 +4997,10 @@
         <f>W3*($W$16 + $W$17*EXP(-(U3-$W$21)/$W$18)+$W$19*EXP(-(U3-$W$21)/$W$20))*2</f>
         <v>115.67178118463731</v>
       </c>
-      <c r="Z3" s="4">
+      <c r="Z3" s="2">
         <v>2.5160999999999998</v>
       </c>
-      <c r="AA3" s="4">
+      <c r="AA3" s="2">
         <v>33.088700000000003</v>
       </c>
       <c r="AB3">
@@ -4678,12 +5011,22 @@
         <f>AB3*($AB$16 + $AB$17*EXP(-(Z3-$AB$21)/$AB$18)+$AB$19*EXP(-(Z3-$AB$21)/$AB$20))*2</f>
         <v>78.750528813496032</v>
       </c>
+      <c r="AE3" s="2"/>
+      <c r="AF3" s="2"/>
+      <c r="AG3">
+        <f t="shared" ref="AG3:AG9" si="3">AF3/($AF$16 + $AF$17*EXP(-(AE3-$AF$21)/$AF$18)+$AF$19*EXP(-(AE3-$AF$21)/$AF$20))</f>
+        <v>0</v>
+      </c>
+      <c r="AH3">
+        <f t="shared" ref="AH3:AH9" si="4">AG3*($AG$16 + $AG$17*EXP(-(AE3-$AG$21)/$AG$18)+$AG$19*EXP(-(AE3-$AG$21)/$AG$20))*2</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:29">
-      <c r="A4" s="4">
+    <row r="4" spans="1:34">
+      <c r="A4" s="2">
         <v>4.9913999999999996</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="2">
         <v>101.9455</v>
       </c>
       <c r="C4">
@@ -4691,13 +5034,13 @@
         <v>91478.98695057779</v>
       </c>
       <c r="D4">
-        <f t="shared" ref="D4:D8" si="3">C4*($C$16 + $C$17*EXP(-(A4-$C$21)/$C$18)+$C$19*EXP(-(A4-$C$21)/$C$20))*2</f>
+        <f t="shared" ref="D4:D8" si="5">C4*($C$16 + $C$17*EXP(-(A4-$C$21)/$C$18)+$C$19*EXP(-(A4-$C$21)/$C$20))*2</f>
         <v>236.6114439031154</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="2">
         <v>5.0332999999999997</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="2">
         <v>92.314800000000005</v>
       </c>
       <c r="H4">
@@ -4705,27 +5048,27 @@
         <v>86052.188553064872</v>
       </c>
       <c r="I4">
-        <f t="shared" ref="I4:I8" si="4">H4*($H$16 + $H$17*EXP(-(F4-$H$21)/$H$18)+$H$19*EXP(-(F4-$H$21)/$H$20))*2</f>
+        <f t="shared" ref="I4:I8" si="6">H4*($H$16 + $H$17*EXP(-(F4-$H$21)/$H$18)+$H$19*EXP(-(F4-$H$21)/$H$20))*2</f>
         <v>249.74752745577493</v>
       </c>
-      <c r="K4" s="4">
+      <c r="K4" s="2">
         <v>4.9977999999999998</v>
       </c>
-      <c r="L4" s="4">
+      <c r="L4" s="2">
         <v>77.944900000000004</v>
       </c>
       <c r="M4">
-        <f t="shared" ref="M4:M8" si="5">L4/($L$16 + $L$17*EXP(-(K4-$L$21)/$L$18)+$L$19*EXP(-(K4-$L$21)/$L$20))</f>
+        <f t="shared" ref="M4:M8" si="7">L4/($L$16 + $L$17*EXP(-(K4-$L$21)/$L$18)+$L$19*EXP(-(K4-$L$21)/$L$20))</f>
         <v>79164.44088783607</v>
       </c>
       <c r="N4">
-        <f t="shared" ref="N4:N8" si="6">M4*($M$16 + $M$17*EXP(-(K4-$M$21)/$M$18)+$M$19*EXP(-(K4-$M$21)/$M$20))*2</f>
+        <f t="shared" ref="N4:N8" si="8">M4*($M$16 + $M$17*EXP(-(K4-$M$21)/$M$18)+$M$19*EXP(-(K4-$M$21)/$M$20))*2</f>
         <v>205.00525242971679</v>
       </c>
-      <c r="P4" s="4">
+      <c r="P4" s="2">
         <v>4.9858000000000002</v>
       </c>
-      <c r="Q4" s="4">
+      <c r="Q4" s="2">
         <v>71.027699999999996</v>
       </c>
       <c r="R4">
@@ -4733,43 +5076,53 @@
         <v>77041.662815135118</v>
       </c>
       <c r="S4">
-        <f t="shared" ref="S4:S8" si="7">R4*($R$16 + $R$17*EXP(-(P4-$R$21)/$R$18)+$R$19*EXP(-(P4-$R$21)/$R$20))*2</f>
+        <f t="shared" ref="S4:S8" si="9">R4*($R$16 + $R$17*EXP(-(P4-$R$21)/$R$18)+$R$19*EXP(-(P4-$R$21)/$R$20))*2</f>
         <v>183.01834792818511</v>
       </c>
-      <c r="U4" s="4">
+      <c r="U4" s="2">
         <v>5.0317999999999996</v>
       </c>
-      <c r="V4" s="4">
+      <c r="V4" s="2">
         <v>60.259700000000002</v>
       </c>
       <c r="W4">
-        <f t="shared" ref="W4:W8" si="8">V4/($V$16 + $V$17*EXP(-(U4-$V$21)/$V$18)+$V$19*EXP(-(U4-$V$21)/$V$20))</f>
+        <f t="shared" ref="W4:W8" si="10">V4/($V$16 + $V$17*EXP(-(U4-$V$21)/$V$18)+$V$19*EXP(-(U4-$V$21)/$V$20))</f>
         <v>67171.962965544531</v>
       </c>
       <c r="X4">
-        <f t="shared" ref="X4:X8" si="9">W4*($W$16 + $W$17*EXP(-(U4-$W$21)/$W$18)+$W$19*EXP(-(U4-$W$21)/$W$20))*2</f>
+        <f t="shared" ref="X4:X8" si="11">W4*($W$16 + $W$17*EXP(-(U4-$W$21)/$W$18)+$W$19*EXP(-(U4-$W$21)/$W$20))*2</f>
         <v>153.91734140180196</v>
       </c>
-      <c r="Z4" s="4">
+      <c r="Z4" s="2">
         <v>5.0366</v>
       </c>
-      <c r="AA4" s="4">
+      <c r="AA4" s="2">
         <v>50.879100000000001</v>
       </c>
       <c r="AB4">
-        <f t="shared" ref="AB4:AB8" si="10">AA4/($AA$16 + $AA$17*EXP(-(Z4-$AA$21)/$AA$18)+$AA$19*EXP(-(Z4-$AA$21)/$AA$20))</f>
+        <f t="shared" ref="AB4:AB8" si="12">AA4/($AA$16 + $AA$17*EXP(-(Z4-$AA$21)/$AA$18)+$AA$19*EXP(-(Z4-$AA$21)/$AA$20))</f>
         <v>62975.362828884266</v>
       </c>
       <c r="AC4">
-        <f t="shared" ref="AC4:AC8" si="11">AB4*($AB$16 + $AB$17*EXP(-(Z4-$AB$21)/$AB$18)+$AB$19*EXP(-(Z4-$AB$21)/$AB$20))*2</f>
+        <f t="shared" ref="AC4:AC8" si="13">AB4*($AB$16 + $AB$17*EXP(-(Z4-$AB$21)/$AB$18)+$AB$19*EXP(-(Z4-$AB$21)/$AB$20))*2</f>
         <v>126.64688808446761</v>
       </c>
+      <c r="AE4" s="2"/>
+      <c r="AF4" s="2"/>
+      <c r="AG4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AH4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:29">
-      <c r="A5" s="4">
+    <row r="5" spans="1:34">
+      <c r="A5" s="2">
         <v>14.9946</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="2">
         <v>122.3262</v>
       </c>
       <c r="C5">
@@ -4777,13 +5130,13 @@
         <v>52430.660889315914</v>
       </c>
       <c r="D5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>376.34161517421109</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="2">
         <v>14.991099999999999</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="2">
         <v>123.3098</v>
       </c>
       <c r="H5">
@@ -4791,27 +5144,27 @@
         <v>54441.795661679091</v>
       </c>
       <c r="I5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>428.70788398600206</v>
       </c>
-      <c r="K5" s="4">
+      <c r="K5" s="2">
         <v>15.012700000000001</v>
       </c>
-      <c r="L5" s="4">
+      <c r="L5" s="2">
         <v>110.3428</v>
       </c>
       <c r="M5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>51378.940381332228</v>
       </c>
       <c r="N5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>369.19636264827909</v>
       </c>
-      <c r="P5" s="4">
+      <c r="P5" s="2">
         <v>15.0093</v>
       </c>
-      <c r="Q5" s="4">
+      <c r="Q5" s="2">
         <v>101.76179999999999</v>
       </c>
       <c r="R5">
@@ -4819,43 +5172,57 @@
         <v>49650.258712073133</v>
       </c>
       <c r="S5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>331.10209661879009</v>
       </c>
-      <c r="U5" s="4">
+      <c r="U5" s="2">
         <v>14.983599999999999</v>
       </c>
-      <c r="V5" s="4">
+      <c r="V5" s="2">
         <v>99.884600000000006</v>
       </c>
       <c r="W5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>50225.372732069038</v>
       </c>
       <c r="X5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>318.25507056741679</v>
       </c>
-      <c r="Z5" s="4">
+      <c r="Z5" s="2">
         <v>15.008699999999999</v>
       </c>
-      <c r="AA5" s="4">
+      <c r="AA5" s="2">
         <v>78.353800000000007</v>
       </c>
       <c r="AB5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>42745.383059525448</v>
       </c>
       <c r="AC5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>238.1002837340923</v>
       </c>
+      <c r="AE5" s="2">
+        <v>15.080399999999999</v>
+      </c>
+      <c r="AF5" s="2">
+        <v>69.213300000000004</v>
+      </c>
+      <c r="AG5">
+        <f>AF5/($AF$16 + $AF$17*EXP(-(AE5-$AF$21)/$AF$18)+$AF$19*EXP(-(AE5-$AF$21)/$AF$20))</f>
+        <v>41732.534760819573</v>
+      </c>
+      <c r="AH5">
+        <f>AG5*($AG$16 + $AG$17*EXP(-(AE5-$AG$21)/$AG$18)+$AG$19*EXP(-(AE5-$AG$21)/$AG$20))*2</f>
+        <v>200.94562980968641</v>
+      </c>
     </row>
-    <row r="6" spans="1:29">
-      <c r="A6" s="4">
+    <row r="6" spans="1:34">
+      <c r="A6" s="2">
         <v>29.9819</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="2">
         <v>138.9171</v>
       </c>
       <c r="C6">
@@ -4863,13 +5230,13 @@
         <v>42233.791026056919</v>
       </c>
       <c r="D6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>556.85294587741328</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="2">
         <v>30.008199999999999</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="2">
         <v>140.69649999999999</v>
       </c>
       <c r="H6">
@@ -4877,263 +5244,307 @@
         <v>43658.760924306909</v>
       </c>
       <c r="I6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>626.79997516693322</v>
       </c>
-      <c r="K6" s="4">
+      <c r="K6" s="2">
         <v>30.0029</v>
       </c>
-      <c r="L6" s="4">
+      <c r="L6" s="2">
         <v>129.97309999999999</v>
       </c>
       <c r="M6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>41985.860416037656</v>
       </c>
       <c r="N6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>553.90943792861162</v>
       </c>
-      <c r="P6" s="4">
+      <c r="P6" s="2">
         <v>30.041899999999998</v>
       </c>
-      <c r="Q6" s="4">
+      <c r="Q6" s="2">
         <v>126.6908</v>
       </c>
-      <c r="R6" s="3">
+      <c r="R6">
         <f t="shared" si="2"/>
         <v>42248.666348952123</v>
       </c>
       <c r="S6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>521.14836300364971</v>
       </c>
-      <c r="U6" s="4">
+      <c r="U6" s="2">
         <v>29.9983</v>
       </c>
-      <c r="V6" s="4">
+      <c r="V6" s="2">
         <v>113.354</v>
       </c>
       <c r="W6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>38619.635850345388</v>
       </c>
       <c r="X6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>453.47361398414864</v>
       </c>
-      <c r="Z6" s="4">
+      <c r="Z6" s="2">
         <v>29.990400000000001</v>
       </c>
-      <c r="AA6" s="4">
+      <c r="AA6" s="2">
         <v>104.2431</v>
       </c>
       <c r="AB6">
-        <f t="shared" si="10"/>
+        <f>AA6/($AA$16 + $AA$17*EXP(-(Z6-$AA$21)/$AA$18)+$AA$19*EXP(-(Z6-$AA$21)/$AA$20))</f>
         <v>37915.429267589541</v>
       </c>
       <c r="AC6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>393.58519373151933</v>
       </c>
+      <c r="AE6" s="2">
+        <v>30.271100000000001</v>
+      </c>
+      <c r="AF6" s="2">
+        <v>89.322299999999998</v>
+      </c>
+      <c r="AG6">
+        <f t="shared" si="3"/>
+        <v>35180.805958087156</v>
+      </c>
+      <c r="AH6">
+        <f t="shared" si="4"/>
+        <v>319.9244589890007</v>
+      </c>
     </row>
-    <row r="7" spans="1:29">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
+    <row r="7" spans="1:34">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
       <c r="C7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D7">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
       <c r="H7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="U7" s="2"/>
+      <c r="V7" s="2"/>
+      <c r="W7">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Z7" s="2"/>
+      <c r="AA7" s="2"/>
+      <c r="AB7">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AC7">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AE7" s="2"/>
+      <c r="AF7" s="2"/>
+      <c r="AG7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AH7">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="N7">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="4"/>
-      <c r="R7" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="S7">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="U7" s="4"/>
-      <c r="V7" s="4"/>
-      <c r="W7" s="3">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="X7">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="Z7" s="4"/>
-      <c r="AA7" s="4"/>
-      <c r="AB7">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AC7">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
     </row>
-    <row r="8" spans="1:29">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
+    <row r="8" spans="1:34">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
       <c r="C8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
       <c r="H8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I8">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
       <c r="M8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="N8">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="4"/>
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
       <c r="R8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S8">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="U8" s="4"/>
-      <c r="V8" s="4"/>
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="U8" s="2"/>
+      <c r="V8" s="2"/>
       <c r="W8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="X8">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="Z8" s="4"/>
-      <c r="AA8" s="4"/>
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Z8" s="2"/>
+      <c r="AA8" s="2"/>
       <c r="AB8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AC8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AE8" s="2"/>
+      <c r="AF8" s="2"/>
+      <c r="AG8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AH8">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:29">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
+    <row r="9" spans="1:34">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
       <c r="C9">
         <f>B9/($B$16 + $B$17*EXP(-(A9-$B$21)/$B$18)+$B$19*EXP(-(A9-$B$21)/$B$20))</f>
         <v>0</v>
       </c>
       <c r="D9">
-        <f t="shared" ref="D9" si="12">C9*($C$16 + $C$17*EXP(-(A9-$C$21)/$C$18)+$C$19*EXP(-(A9-$C$21)/$C$20))*2</f>
-        <v>0</v>
-      </c>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
+        <f t="shared" ref="D9" si="14">C9*($C$16 + $C$17*EXP(-(A9-$C$21)/$C$18)+$C$19*EXP(-(A9-$C$21)/$C$20))*2</f>
+        <v>0</v>
+      </c>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
       <c r="H9">
-        <f t="shared" ref="H9" si="13">G9/($G$16 + $G$17*EXP(-(F9-$G$21)/$G$18)+$G$19*EXP(-(F9-$G$21)/$G$20))</f>
+        <f t="shared" ref="H9" si="15">G9/($G$16 + $G$17*EXP(-(F9-$G$21)/$G$18)+$G$19*EXP(-(F9-$G$21)/$G$20))</f>
         <v>0</v>
       </c>
       <c r="I9">
-        <f t="shared" ref="I9" si="14">H9*($H$16 + $H$17*EXP(-(F9-$H$21)/$H$18)+$H$19*EXP(-(F9-$H$21)/$H$20))*2</f>
-        <v>0</v>
-      </c>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
+        <f t="shared" ref="I9" si="16">H9*($H$16 + $H$17*EXP(-(F9-$H$21)/$H$18)+$H$19*EXP(-(F9-$H$21)/$H$20))*2</f>
+        <v>0</v>
+      </c>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
       <c r="M9">
-        <f t="shared" ref="M9" si="15">L9/($L$16 + $L$17*EXP(-(K9-$L$21)/$L$18)+$L$19*EXP(-(K9-$L$21)/$L$20))</f>
+        <f t="shared" ref="M9" si="17">L9/($L$16 + $L$17*EXP(-(K9-$L$21)/$L$18)+$L$19*EXP(-(K9-$L$21)/$L$20))</f>
         <v>0</v>
       </c>
       <c r="N9">
-        <f t="shared" ref="N9" si="16">M9*($M$16 + $M$17*EXP(-(K9-$M$21)/$M$18)+$M$19*EXP(-(K9-$M$21)/$M$20))*2</f>
-        <v>0</v>
-      </c>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="4"/>
+        <f t="shared" ref="N9" si="18">M9*($M$16 + $M$17*EXP(-(K9-$M$21)/$M$18)+$M$19*EXP(-(K9-$M$21)/$M$20))*2</f>
+        <v>0</v>
+      </c>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
       <c r="R9">
-        <f t="shared" ref="R9" si="17">Q9/($Q$16 + $Q$17*EXP(-(P9-$Q$21)/$Q$18)+$Q$19*EXP(-(P9-$Q$21)/$Q$20))</f>
+        <f t="shared" ref="R9" si="19">Q9/($Q$16 + $Q$17*EXP(-(P9-$Q$21)/$Q$18)+$Q$19*EXP(-(P9-$Q$21)/$Q$20))</f>
         <v>0</v>
       </c>
       <c r="S9">
-        <f t="shared" ref="S9" si="18">R9*($R$16 + $R$17*EXP(-(P9-$R$21)/$R$18)+$R$19*EXP(-(P9-$R$21)/$R$20))*2</f>
-        <v>0</v>
-      </c>
-      <c r="U9" s="4"/>
-      <c r="V9" s="4"/>
+        <f t="shared" ref="S9" si="20">R9*($R$16 + $R$17*EXP(-(P9-$R$21)/$R$18)+$R$19*EXP(-(P9-$R$21)/$R$20))*2</f>
+        <v>0</v>
+      </c>
+      <c r="U9" s="2"/>
+      <c r="V9" s="2"/>
       <c r="W9">
-        <f t="shared" ref="W9" si="19">V9/($V$16 + $V$17*EXP(-(U9-$V$21)/$V$18)+$V$19*EXP(-(U9-$V$21)/$V$20))</f>
+        <f t="shared" ref="W9" si="21">V9/($V$16 + $V$17*EXP(-(U9-$V$21)/$V$18)+$V$19*EXP(-(U9-$V$21)/$V$20))</f>
         <v>0</v>
       </c>
       <c r="X9">
-        <f t="shared" ref="X9" si="20">W9*($W$16 + $W$17*EXP(-(U9-$W$21)/$W$18)+$W$19*EXP(-(U9-$W$21)/$W$20))*2</f>
-        <v>0</v>
-      </c>
-      <c r="Z9" s="4"/>
-      <c r="AA9" s="4"/>
+        <f t="shared" ref="X9" si="22">W9*($W$16 + $W$17*EXP(-(U9-$W$21)/$W$18)+$W$19*EXP(-(U9-$W$21)/$W$20))*2</f>
+        <v>0</v>
+      </c>
+      <c r="Z9" s="2"/>
+      <c r="AA9" s="2"/>
       <c r="AB9">
-        <f t="shared" ref="AB9" si="21">AA9/($AA$16 + $AA$17*EXP(-(Z9-$AA$21)/$AA$18)+$AA$19*EXP(-(Z9-$AA$21)/$AA$20))</f>
+        <f t="shared" ref="AB9" si="23">AA9/($AA$16 + $AA$17*EXP(-(Z9-$AA$21)/$AA$18)+$AA$19*EXP(-(Z9-$AA$21)/$AA$20))</f>
         <v>0</v>
       </c>
       <c r="AC9">
-        <f t="shared" ref="AC9" si="22">AB9*($AB$16 + $AB$17*EXP(-(Z9-$AB$21)/$AB$18)+$AB$19*EXP(-(Z9-$AB$21)/$AB$20))*2</f>
+        <f t="shared" ref="AC9" si="24">AB9*($AB$16 + $AB$17*EXP(-(Z9-$AB$21)/$AB$18)+$AB$19*EXP(-(Z9-$AB$21)/$AB$20))*2</f>
+        <v>0</v>
+      </c>
+      <c r="AE9" s="2"/>
+      <c r="AF9" s="2"/>
+      <c r="AG9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AH9">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:29">
+    <row r="11" spans="1:34">
       <c r="A11" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:29">
-      <c r="A12" s="5" t="s">
+    <row r="12" spans="1:34">
+      <c r="A12" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:29">
+    <row r="14" spans="1:34">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -5141,7 +5552,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:29">
+    <row r="15" spans="1:34">
       <c r="A15" t="s">
         <v>25</v>
       </c>
@@ -5196,8 +5607,17 @@
       <c r="AB15" t="s">
         <v>10</v>
       </c>
+      <c r="AE15" t="s">
+        <v>25</v>
+      </c>
+      <c r="AF15" t="s">
+        <v>11</v>
+      </c>
+      <c r="AG15" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="16" spans="1:29">
+    <row r="16" spans="1:34">
       <c r="A16" t="s">
         <v>3</v>
       </c>
@@ -5252,8 +5672,17 @@
       <c r="AB16">
         <v>2.4445000000000001E-2</v>
       </c>
+      <c r="AE16" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF16">
+        <v>5.9233999999999997E-3</v>
+      </c>
+      <c r="AG16">
+        <v>2.1337999999999999E-2</v>
+      </c>
     </row>
-    <row r="17" spans="1:28">
+    <row r="17" spans="1:33">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -5308,8 +5737,17 @@
       <c r="AB17">
         <v>-1.2352999999999999E-2</v>
       </c>
+      <c r="AE17" t="s">
+        <v>4</v>
+      </c>
+      <c r="AF17">
+        <v>-9.5390000000000004E-4</v>
+      </c>
+      <c r="AG17">
+        <v>-1.0654E-2</v>
+      </c>
     </row>
-    <row r="18" spans="1:28">
+    <row r="18" spans="1:33">
       <c r="A18" t="s">
         <v>5</v>
       </c>
@@ -5364,8 +5802,17 @@
       <c r="AB18">
         <v>172.71</v>
       </c>
+      <c r="AE18" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF18">
+        <v>10.055999999999999</v>
+      </c>
+      <c r="AG18">
+        <v>143.43</v>
+      </c>
     </row>
-    <row r="19" spans="1:28">
+    <row r="19" spans="1:33">
       <c r="A19" t="s">
         <v>6</v>
       </c>
@@ -5420,8 +5867,17 @@
       <c r="AB19">
         <v>-1.1847999999999999E-2</v>
       </c>
+      <c r="AE19" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF19">
+        <v>-4.8073999999999999E-3</v>
+      </c>
+      <c r="AG19">
+        <v>-1.0503E-2</v>
+      </c>
     </row>
-    <row r="20" spans="1:28">
+    <row r="20" spans="1:33">
       <c r="A20" t="s">
         <v>7</v>
       </c>
@@ -5476,8 +5932,17 @@
       <c r="AB20">
         <v>97.78</v>
       </c>
+      <c r="AE20" t="s">
+        <v>7</v>
+      </c>
+      <c r="AF20">
+        <v>79.935000000000002</v>
+      </c>
+      <c r="AG20">
+        <v>112.75</v>
+      </c>
     </row>
-    <row r="21" spans="1:28">
+    <row r="21" spans="1:33">
       <c r="A21" t="s">
         <v>8</v>
       </c>
@@ -5531,6 +5996,15 @@
       </c>
       <c r="AB21">
         <v>1.0161</v>
+      </c>
+      <c r="AE21" t="s">
+        <v>8</v>
+      </c>
+      <c r="AF21">
+        <v>0.98299999999999998</v>
+      </c>
+      <c r="AG21">
+        <v>1.018</v>
       </c>
     </row>
   </sheetData>
